--- a/project-2/results/spreadsheet/SpeedUps.xlsx
+++ b/project-2/results/spreadsheet/SpeedUps.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OMP" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
-    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
+    <sheet name="MPIvsSEQ" sheetId="2" r:id="rId2"/>
+    <sheet name="MPIvsOMP" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
   <si>
     <t>exp</t>
   </si>
@@ -40,6 +40,48 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>2cores</t>
+  </si>
+  <si>
+    <t>4cores</t>
+  </si>
+  <si>
+    <t>8cores</t>
+  </si>
+  <si>
+    <t>16proc</t>
+  </si>
+  <si>
+    <t>8proc</t>
+  </si>
+  <si>
+    <t>32proc</t>
+  </si>
+  <si>
+    <t>4proc</t>
+  </si>
+  <si>
+    <t>1core</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>MPI SPEEDUP</t>
+  </si>
+  <si>
+    <t>Numbers / sec</t>
+  </si>
+  <si>
+    <t>Numbers / sec Mean SPEEDUP</t>
+  </si>
+  <si>
+    <t>OMP</t>
+  </si>
+  <si>
+    <t>3 Threads</t>
   </si>
 </sst>
 </file>
@@ -236,14 +278,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,37 +295,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -322,6 +337,61 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,11 +1119,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280214848"/>
-        <c:axId val="280214272"/>
+        <c:axId val="64322304"/>
+        <c:axId val="64322880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280214848"/>
+        <c:axId val="64322304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1083,12 +1153,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280214272"/>
+        <c:crossAx val="64322880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280214272"/>
+        <c:axId val="64322880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7000000000000002"/>
@@ -1120,7 +1190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280214848"/>
+        <c:crossAx val="64322304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1196,7 +1266,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>OMP!$Z$13:$AG$13</c:f>
+              <c:f>OMP!$Z$14:$AG$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1229,7 +1299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OMP!$Z$14:$AG$14</c:f>
+              <c:f>OMP!$Z$15:$AG$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1270,11 +1340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="290967488"/>
-        <c:axId val="290966912"/>
+        <c:axId val="213157568"/>
+        <c:axId val="213158144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="290967488"/>
+        <c:axId val="213157568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1305,13 +1375,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290966912"/>
+        <c:crossAx val="213158144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="290966912"/>
+        <c:axId val="213158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000000"/>
@@ -1343,7 +1413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290967488"/>
+        <c:crossAx val="213157568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1409,7 +1479,7 @@
           <c:order val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>OMP!$Z$13:$AG$13</c:f>
+              <c:f>OMP!$Z$14:$AG$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1442,7 +1512,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>OMP!$Z$15:$AG$15</c:f>
+              <c:f>OMP!$Z$16:$AG$16</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1483,11 +1553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="282008320"/>
-        <c:axId val="282007744"/>
+        <c:axId val="213160448"/>
+        <c:axId val="213161024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="282008320"/>
+        <c:axId val="213160448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1518,12 +1588,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282007744"/>
+        <c:crossAx val="213161024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282007744"/>
+        <c:axId val="213161024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1554,7 +1624,1295 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282008320"/>
+        <c:crossAx val="213160448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI on 4 computer VS sequencial</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsSEQ!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4proc 1core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.6768899191187865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2029060486949277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6672240198334207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4964780205883779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4553712897433191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4360683088665369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4596105361898197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4618407621640013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsSEQ!$K$2:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8proc 2cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8960597649866404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9097250482899342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6963076623313365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5223924255588459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2909323859449868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5592634285527209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5582365343882079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5480472372545107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsSEQ!$L$2:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16proc 4cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9215821901785466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8881221127369541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.390463625351158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2141575350311178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1457488988720583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2032351289650491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2018973926200021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2681821981650607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsSEQ!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32proc 8cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9753487189734931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8251645899303797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1887369166103201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9857891312536384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.950263087452107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9413195180704479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9983661982472043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0051129986559326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="222034688"/>
+        <c:axId val="222034112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="222034688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222034112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="222034112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="222034688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI on 4 computer VS sequencial (Mean of N)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$R$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsSEQ!$R$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.2636493882085831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1432480287251514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6770079729019969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3840667260923709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="282141824"/>
+        <c:axId val="282141248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="282141824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="282141248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="282141248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3.3"/>
+          <c:min val="2.2999999999999998"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="282141824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI on 4 computer VS OMP 3 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsOMP!$J$2:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4proc 1core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$J$4:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.2997540224031257</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5746922654687472</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0993935772677008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9658510598225287</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.958079946883158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9369480587970198</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9415769413619033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9527050017012588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsOMP!$K$2:$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8proc 2cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$K$4:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7607065964566422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3390154011933491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1222855472745872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9862573522295648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8269451888284516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0349020230027475</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0194307158124825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.021083029100684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsOMP!$L$2:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16proc 4cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$L$4:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.3976226419539914</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3216496370297888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8815532345377244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7435378565155972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7111660087738578</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7518195161398722</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7381423367044642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7990971598152519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MPIvsOMP!$M$2:$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>32proc 8cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$I$4:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$M$4:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7443887545352839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2710405200095725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7227725121294442</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5637092079580865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5552723364642804</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.543567172704158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5774780900574192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.590433565658385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="256578624"/>
+        <c:axId val="256579200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="256578624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="256579200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="256579200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.5"/>
+          <c:min val="1.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="256578624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI on 4 computer VS OMP 3 threads (Mean of N)</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$R$14:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MPIvsOMP!$R$17:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5413605881394452</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4476056428762969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0845506815309292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8564412093639289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="262246912"/>
+        <c:axId val="262247488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="262246912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262247488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="262247488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.6"/>
+          <c:min val="1.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="262246912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1606,15 +2964,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1705,6 +3063,140 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1994,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S40" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,1202 +3501,1222 @@
     <col min="24" max="25" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="W1" s="3" t="s">
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AI1" s="3"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="26" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="26" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="45"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="28"/>
-      <c r="AI2" s="3"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
+      <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:36" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <v>5</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>7</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="3">
         <v>8</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="29">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="20">
         <v>1</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="21">
         <v>2</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="21">
         <v>3</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="21">
         <v>4</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="21">
         <v>5</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="21">
         <v>6</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="21">
         <v>7</v>
       </c>
-      <c r="U3" s="31">
+      <c r="U3" s="22">
         <v>8</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="4" t="s">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="20">
         <v>1</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="21">
         <v>2</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3" s="21">
         <v>3</v>
       </c>
-      <c r="AC3" s="30">
+      <c r="AC3" s="21">
         <v>4</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="21">
         <v>5</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AE3" s="21">
         <v>6</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="21">
         <v>7</v>
       </c>
-      <c r="AG3" s="31">
+      <c r="AG3" s="22">
         <v>8</v>
       </c>
-      <c r="AI3" s="3"/>
+      <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>25</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>0.292435</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.26853399999999999</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.21863099999999999</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.20188300000000001</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>0.17320199999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.208842</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0.207256</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>0.22620299999999999</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>0.372807</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="6">
+      <c r="L4" s="32"/>
+      <c r="M4" s="4">
         <v>25</v>
       </c>
-      <c r="N4" s="32">
-        <f>$B4/C4</f>
+      <c r="N4" s="23">
+        <f t="shared" ref="N4:N11" si="0">$B4/C4</f>
         <v>1.0890054890628376</v>
       </c>
-      <c r="O4" s="33">
-        <f t="shared" ref="O4:U4" si="0">$B4/D4</f>
+      <c r="O4" s="24">
+        <f t="shared" ref="O4:U4" si="1">$B4/D4</f>
         <v>1.3375733541903938</v>
       </c>
-      <c r="P4" s="33">
-        <f t="shared" si="0"/>
+      <c r="P4" s="24">
+        <f t="shared" si="1"/>
         <v>1.448537023919795</v>
       </c>
-      <c r="Q4" s="34">
-        <f t="shared" si="0"/>
+      <c r="Q4" s="25">
+        <f t="shared" si="1"/>
         <v>1.6884042909435226</v>
       </c>
-      <c r="R4" s="33">
-        <f t="shared" si="0"/>
+      <c r="R4" s="24">
+        <f t="shared" si="1"/>
         <v>1.4002691029582173</v>
       </c>
-      <c r="S4" s="33">
-        <f t="shared" si="0"/>
+      <c r="S4" s="24">
+        <f t="shared" si="1"/>
         <v>1.4109844829582738</v>
       </c>
-      <c r="T4" s="33">
-        <f t="shared" si="0"/>
+      <c r="T4" s="24">
+        <f t="shared" si="1"/>
         <v>1.2927989460794067</v>
       </c>
-      <c r="U4" s="35">
-        <f t="shared" si="0"/>
+      <c r="U4" s="26">
+        <f t="shared" si="1"/>
         <v>0.78441391926653736</v>
       </c>
       <c r="W4">
         <v>33554432</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="4">
         <v>25</v>
       </c>
-      <c r="Y4" s="50">
+      <c r="Y4" s="41">
         <f>W4/B4</f>
         <v>114741504.94981791</v>
       </c>
-      <c r="Z4" s="44">
+      <c r="Z4" s="35">
         <f>$W4/C4</f>
         <v>124954128.71368244</v>
       </c>
-      <c r="AA4" s="43">
-        <f t="shared" ref="AA4:AG4" si="1">$W4/D4</f>
+      <c r="AA4" s="34">
+        <f t="shared" ref="AA4:AG4" si="2">$W4/D4</f>
         <v>153475179.64058164</v>
       </c>
-      <c r="AB4" s="43">
-        <f t="shared" si="1"/>
+      <c r="AB4" s="34">
+        <f t="shared" si="2"/>
         <v>166207318.10008767</v>
       </c>
-      <c r="AC4" s="43">
-        <f t="shared" si="1"/>
+      <c r="AC4" s="34">
+        <f t="shared" si="2"/>
         <v>193730049.30658999</v>
       </c>
-      <c r="AD4" s="43">
-        <f t="shared" si="1"/>
+      <c r="AD4" s="34">
+        <f t="shared" si="2"/>
         <v>160668984.20815736</v>
       </c>
-      <c r="AE4" s="43">
-        <f t="shared" si="1"/>
+      <c r="AE4" s="34">
+        <f t="shared" si="2"/>
         <v>161898483.03547305</v>
       </c>
-      <c r="AF4" s="43">
-        <f t="shared" si="1"/>
+      <c r="AF4" s="34">
+        <f t="shared" si="2"/>
         <v>148337696.67068961</v>
       </c>
-      <c r="AG4" s="45">
-        <f t="shared" si="1"/>
+      <c r="AG4" s="36">
+        <f t="shared" si="2"/>
         <v>90004833.60022746</v>
       </c>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="49"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="40"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>26</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>0.50765099999999996</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.50805199999999995</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="12">
         <v>0.43643199999999999</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>0.40808100000000003</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="13">
         <v>0.40144800000000003</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="12">
         <v>0.436998</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="12">
         <v>0.43353700000000001</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="12">
         <v>0.43771500000000002</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="12">
         <v>0.43953399999999998</v>
       </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="6">
+      <c r="K5" s="49"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="4">
         <v>26</v>
       </c>
-      <c r="N5" s="32">
-        <f>$B5/C5</f>
+      <c r="N5" s="23">
+        <f t="shared" si="0"/>
         <v>0.99921071071465128</v>
       </c>
-      <c r="O5" s="33">
-        <f>$B5/D5</f>
+      <c r="O5" s="24">
+        <f t="shared" ref="O5:U11" si="3">$B5/D5</f>
         <v>1.1631846427393042</v>
       </c>
-      <c r="P5" s="33">
-        <f>$B5/E5</f>
+      <c r="P5" s="24">
+        <f t="shared" si="3"/>
         <v>1.2439956773287655</v>
       </c>
-      <c r="Q5" s="34">
-        <f>$B5/F5</f>
+      <c r="Q5" s="25">
+        <f t="shared" si="3"/>
         <v>1.264549829616787</v>
       </c>
-      <c r="R5" s="33">
-        <f>$B5/G5</f>
+      <c r="R5" s="24">
+        <f t="shared" si="3"/>
         <v>1.1616780854832287</v>
       </c>
-      <c r="S5" s="33">
-        <f>$B5/H5</f>
+      <c r="S5" s="24">
+        <f t="shared" si="3"/>
         <v>1.1709519602709801</v>
       </c>
-      <c r="T5" s="33">
-        <f>$B5/I5</f>
+      <c r="T5" s="24">
+        <f t="shared" si="3"/>
         <v>1.159775196189301</v>
       </c>
-      <c r="U5" s="36">
-        <f>$B5/J5</f>
+      <c r="U5" s="27">
+        <f t="shared" si="3"/>
         <v>1.154975496776131</v>
       </c>
       <c r="W5">
         <v>67108864</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="4">
         <v>26</v>
       </c>
-      <c r="Y5" s="50">
-        <f t="shared" ref="Y5:Y11" si="2">W5/B5</f>
+      <c r="Y5" s="41">
+        <f t="shared" ref="Y5:Y11" si="4">W5/B5</f>
         <v>132194881.91690749</v>
       </c>
-      <c r="Z5" s="44">
-        <f t="shared" ref="Z5:Z11" si="3">$W5/C5</f>
+      <c r="Z5" s="35">
+        <f t="shared" ref="Z5:Z11" si="5">$W5/C5</f>
         <v>132090541.91303253</v>
       </c>
-      <c r="AA5" s="43">
-        <f t="shared" ref="AA5:AA11" si="4">$W5/D5</f>
+      <c r="AA5" s="34">
+        <f t="shared" ref="AA5:AA11" si="6">$W5/D5</f>
         <v>153767056.49448255</v>
       </c>
-      <c r="AB5" s="43">
-        <f t="shared" ref="AB5:AB11" si="5">$W5/E5</f>
+      <c r="AB5" s="34">
+        <f t="shared" ref="AB5:AB11" si="7">$W5/E5</f>
         <v>164449861.6696195</v>
       </c>
-      <c r="AC5" s="43">
-        <f t="shared" ref="AC5:AC11" si="6">$W5/F5</f>
+      <c r="AC5" s="34">
+        <f t="shared" ref="AC5:AC11" si="8">$W5/F5</f>
         <v>167167015.40423664</v>
       </c>
-      <c r="AD5" s="43">
-        <f t="shared" ref="AD5:AD11" si="7">$W5/G5</f>
+      <c r="AD5" s="34">
+        <f t="shared" ref="AD5:AD11" si="9">$W5/G5</f>
         <v>153567897.33591458</v>
       </c>
-      <c r="AE5" s="43">
-        <f t="shared" ref="AE5:AE11" si="8">$W5/H5</f>
+      <c r="AE5" s="34">
+        <f t="shared" ref="AE5:AE11" si="10">$W5/H5</f>
         <v>154793856.11839357</v>
       </c>
-      <c r="AF5" s="43">
-        <f t="shared" ref="AF5:AF11" si="9">$W5/I5</f>
+      <c r="AF5" s="34">
+        <f t="shared" ref="AF5:AF11" si="11">$W5/I5</f>
         <v>153316345.11040288</v>
       </c>
-      <c r="AG5" s="45">
-        <f t="shared" ref="AG5:AG11" si="10">$W5/J5</f>
+      <c r="AG5" s="36">
+        <f t="shared" ref="AG5:AG11" si="12">$W5/J5</f>
         <v>152681849.41324222</v>
       </c>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="49"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="40"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>27</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>1.1070500000000001</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>1.12968</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="12">
         <v>0.94476400000000005</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="13">
         <v>0.87136800000000003</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="12">
         <v>0.87283999999999995</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>0.90896699999999997</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="12">
         <v>0.91004700000000005</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <v>0.92542400000000002</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="12">
         <v>0.99928600000000001</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="6">
+      <c r="K6" s="49"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="4">
         <v>27</v>
       </c>
-      <c r="N6" s="32">
-        <f>$B6/C6</f>
+      <c r="N6" s="23">
+        <f t="shared" si="0"/>
         <v>0.97996777848594296</v>
       </c>
-      <c r="O6" s="33">
-        <f>$B6/D6</f>
+      <c r="O6" s="24">
+        <f t="shared" si="3"/>
         <v>1.1717741150170837</v>
       </c>
-      <c r="P6" s="34">
-        <f>$B6/E6</f>
+      <c r="P6" s="25">
+        <f t="shared" si="3"/>
         <v>1.270473554227376</v>
       </c>
-      <c r="Q6" s="34">
-        <f>$B6/F6</f>
+      <c r="Q6" s="25">
+        <f t="shared" si="3"/>
         <v>1.2683309655836124</v>
       </c>
-      <c r="R6" s="33">
-        <f>$B6/G6</f>
+      <c r="R6" s="24">
+        <f t="shared" si="3"/>
         <v>1.217921002632659</v>
       </c>
-      <c r="S6" s="33">
-        <f>$B6/H6</f>
+      <c r="S6" s="24">
+        <f t="shared" si="3"/>
         <v>1.2164756325772186</v>
       </c>
-      <c r="T6" s="33">
-        <f>$B6/I6</f>
+      <c r="T6" s="24">
+        <f t="shared" si="3"/>
         <v>1.1962624699597157</v>
       </c>
-      <c r="U6" s="36">
-        <f>$B6/J6</f>
+      <c r="U6" s="27">
+        <f t="shared" si="3"/>
         <v>1.1078409984729098</v>
       </c>
       <c r="W6">
         <v>134217728</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="4">
         <v>27</v>
       </c>
-      <c r="Y6" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y6" s="41">
+        <f t="shared" si="4"/>
         <v>121239084.05221082</v>
       </c>
-      <c r="Z6" s="44">
-        <f t="shared" si="3"/>
+      <c r="Z6" s="35">
+        <f t="shared" si="5"/>
         <v>118810395.86431555</v>
       </c>
-      <c r="AA6" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA6" s="34">
+        <f t="shared" si="6"/>
         <v>142064820.42076117</v>
       </c>
-      <c r="AB6" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB6" s="34">
+        <f t="shared" si="7"/>
         <v>154031050.02708384</v>
       </c>
-      <c r="AC6" s="43">
-        <f t="shared" si="6"/>
+      <c r="AC6" s="34">
+        <f t="shared" si="8"/>
         <v>153771284.54241329</v>
       </c>
-      <c r="AD6" s="43">
-        <f t="shared" si="7"/>
+      <c r="AD6" s="34">
+        <f t="shared" si="9"/>
         <v>147659626.80713382</v>
       </c>
-      <c r="AE6" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE6" s="34">
+        <f t="shared" si="10"/>
         <v>147484391.46549574</v>
       </c>
-      <c r="AF6" s="43">
-        <f t="shared" si="9"/>
+      <c r="AF6" s="34">
+        <f t="shared" si="11"/>
         <v>145033766.1439513</v>
       </c>
-      <c r="AG6" s="45">
-        <f t="shared" si="10"/>
+      <c r="AG6" s="36">
+        <f t="shared" si="12"/>
         <v>134313627.93034226</v>
       </c>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="49"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="40"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>28</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>2.3196400000000001</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>2.3397899999999998</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="12">
         <v>1.89117</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="13">
         <v>1.8266</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="12">
         <v>1.85521</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="12">
         <v>2.0060600000000002</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="12">
         <v>1.9154199999999999</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="12">
         <v>1.9781500000000001</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="12">
         <v>2.0243199999999999</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="6">
+      <c r="K7" s="49"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="4">
         <v>28</v>
       </c>
-      <c r="N7" s="32">
-        <f>$B7/C7</f>
+      <c r="N7" s="23">
+        <f t="shared" si="0"/>
         <v>0.99138811602750687</v>
       </c>
-      <c r="O7" s="33">
-        <f>$B7/D7</f>
+      <c r="O7" s="24">
+        <f t="shared" si="3"/>
         <v>1.2265634501393319</v>
       </c>
-      <c r="P7" s="34">
-        <f>$B7/E7</f>
+      <c r="P7" s="25">
+        <f t="shared" si="3"/>
         <v>1.2699222599364941</v>
       </c>
-      <c r="Q7" s="33">
-        <f>$B7/F7</f>
+      <c r="Q7" s="24">
+        <f t="shared" si="3"/>
         <v>1.250338236641674</v>
       </c>
-      <c r="R7" s="33">
-        <f>$B7/G7</f>
+      <c r="R7" s="24">
+        <f t="shared" si="3"/>
         <v>1.1563163614248826</v>
       </c>
-      <c r="S7" s="33">
-        <f>$B7/H7</f>
+      <c r="S7" s="24">
+        <f t="shared" si="3"/>
         <v>1.211034655584676</v>
       </c>
-      <c r="T7" s="33">
-        <f>$B7/I7</f>
+      <c r="T7" s="24">
+        <f t="shared" si="3"/>
         <v>1.1726309936051362</v>
       </c>
-      <c r="U7" s="36">
-        <f>$B7/J7</f>
+      <c r="U7" s="27">
+        <f t="shared" si="3"/>
         <v>1.1458860259247552</v>
       </c>
       <c r="W7">
         <v>268435456</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="4">
         <v>28</v>
       </c>
-      <c r="Y7" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y7" s="41">
+        <f t="shared" si="4"/>
         <v>115722894.93197219</v>
       </c>
-      <c r="Z7" s="44">
-        <f t="shared" si="3"/>
+      <c r="Z7" s="35">
+        <f t="shared" si="5"/>
         <v>114726302.78785704</v>
       </c>
-      <c r="AA7" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA7" s="34">
+        <f t="shared" si="6"/>
         <v>141941473.2678712</v>
       </c>
-      <c r="AB7" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB7" s="34">
+        <f t="shared" si="7"/>
         <v>146959080.2584036</v>
       </c>
-      <c r="AC7" s="43">
-        <f t="shared" si="6"/>
+      <c r="AC7" s="34">
+        <f t="shared" si="8"/>
         <v>144692760.38831183</v>
       </c>
-      <c r="AD7" s="43">
-        <f t="shared" si="7"/>
+      <c r="AD7" s="34">
+        <f t="shared" si="9"/>
         <v>133812276.80129208</v>
       </c>
-      <c r="AE7" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE7" s="34">
+        <f t="shared" si="10"/>
         <v>140144436.20720261</v>
       </c>
-      <c r="AF7" s="43">
-        <f t="shared" si="9"/>
+      <c r="AF7" s="34">
+        <f t="shared" si="11"/>
         <v>135700253.26694134</v>
       </c>
-      <c r="AG7" s="45">
-        <f t="shared" si="10"/>
+      <c r="AG7" s="36">
+        <f t="shared" si="12"/>
         <v>132605248.1821056</v>
       </c>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="49"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="40"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>29</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>4.8814500000000001</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>4.9072500000000003</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="12">
         <v>3.9556900000000002</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>3.8927999999999998</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="12">
         <v>4.1963499999999998</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="12">
         <v>4.1491300000000004</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="12">
         <v>4.0070399999999999</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="12">
         <v>4.0598599999999996</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="12">
         <v>4.0821899999999998</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="6">
+      <c r="K8" s="49"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="4">
         <v>29</v>
       </c>
-      <c r="N8" s="32">
-        <f>$B8/C8</f>
+      <c r="N8" s="23">
+        <f t="shared" si="0"/>
         <v>0.99474247287177131</v>
       </c>
-      <c r="O8" s="33">
-        <f>$B8/D8</f>
+      <c r="O8" s="24">
+        <f t="shared" si="3"/>
         <v>1.234032494962952</v>
       </c>
-      <c r="P8" s="34">
-        <f>$B8/E8</f>
+      <c r="P8" s="25">
+        <f t="shared" si="3"/>
         <v>1.2539688655980272</v>
       </c>
-      <c r="Q8" s="33">
-        <f>$B8/F8</f>
+      <c r="Q8" s="24">
+        <f t="shared" si="3"/>
         <v>1.1632609291408009</v>
       </c>
-      <c r="R8" s="33">
-        <f>$B8/G8</f>
+      <c r="R8" s="24">
+        <f t="shared" si="3"/>
         <v>1.1764996517342188</v>
       </c>
-      <c r="S8" s="33">
-        <f>$B8/H8</f>
+      <c r="S8" s="24">
+        <f t="shared" si="3"/>
         <v>1.218218435553426</v>
       </c>
-      <c r="T8" s="33">
-        <f>$B8/I8</f>
+      <c r="T8" s="24">
+        <f t="shared" si="3"/>
         <v>1.2023690472085247</v>
       </c>
-      <c r="U8" s="36">
-        <f>$B8/J8</f>
+      <c r="U8" s="27">
+        <f t="shared" si="3"/>
         <v>1.195791964607233</v>
       </c>
       <c r="W8">
         <v>536870912</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="4">
         <v>29</v>
       </c>
-      <c r="Y8" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y8" s="41">
+        <f t="shared" si="4"/>
         <v>109981852.11361378</v>
       </c>
-      <c r="Z8" s="44">
-        <f t="shared" si="3"/>
+      <c r="Z8" s="35">
+        <f t="shared" si="5"/>
         <v>109403619.54251362</v>
       </c>
-      <c r="AA8" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA8" s="34">
+        <f t="shared" si="6"/>
         <v>135721179.36440924</v>
       </c>
-      <c r="AB8" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB8" s="34">
+        <f t="shared" si="7"/>
         <v>137913818.33127826</v>
       </c>
-      <c r="AC8" s="43">
-        <f t="shared" si="6"/>
+      <c r="AC8" s="34">
+        <f t="shared" si="8"/>
         <v>127937591.47830853</v>
       </c>
-      <c r="AD8" s="43">
-        <f t="shared" si="7"/>
+      <c r="AD8" s="34">
+        <f t="shared" si="9"/>
         <v>129393610.70875098</v>
       </c>
-      <c r="AE8" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE8" s="34">
+        <f t="shared" si="10"/>
         <v>133981919.82111484</v>
       </c>
-      <c r="AF8" s="43">
-        <f t="shared" si="9"/>
+      <c r="AF8" s="34">
+        <f t="shared" si="11"/>
         <v>132238774.73607466</v>
       </c>
-      <c r="AG8" s="45">
-        <f t="shared" si="10"/>
+      <c r="AG8" s="36">
+        <f t="shared" si="12"/>
         <v>131515415.01008038</v>
       </c>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="49"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="40"/>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>30</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>10.1624</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>10.1778</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>8.1557399999999998</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>8.0802499999999995</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="13">
         <v>8.0692400000000006</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="12">
         <v>8.5940100000000008</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="12">
         <v>8.3247999999999998</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="12">
         <v>8.2142999999999997</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="12">
         <v>8.4418699999999998</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="6">
+      <c r="K9" s="49"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="4">
         <v>30</v>
       </c>
-      <c r="N9" s="32">
-        <f>$B9/C9</f>
+      <c r="N9" s="23">
+        <f t="shared" si="0"/>
         <v>0.99848690286702435</v>
       </c>
-      <c r="O9" s="33">
-        <f>$B9/D9</f>
+      <c r="O9" s="24">
+        <f t="shared" si="3"/>
         <v>1.2460426644302049</v>
       </c>
-      <c r="P9" s="34">
-        <f>$B9/E9</f>
+      <c r="P9" s="25">
+        <f t="shared" si="3"/>
         <v>1.2576838587914978</v>
       </c>
-      <c r="Q9" s="34">
-        <f>$B9/F9</f>
+      <c r="Q9" s="25">
+        <f t="shared" si="3"/>
         <v>1.2593998939181383</v>
       </c>
-      <c r="R9" s="33">
-        <f>$B9/G9</f>
+      <c r="R9" s="24">
+        <f t="shared" si="3"/>
         <v>1.1824980422410492</v>
       </c>
-      <c r="S9" s="33">
-        <f>$B9/H9</f>
+      <c r="S9" s="24">
+        <f t="shared" si="3"/>
         <v>1.2207380357486066</v>
       </c>
-      <c r="T9" s="33">
-        <f>$B9/I9</f>
+      <c r="T9" s="24">
+        <f t="shared" si="3"/>
         <v>1.2371595875485435</v>
       </c>
-      <c r="U9" s="36">
-        <f>$B9/J9</f>
+      <c r="U9" s="27">
+        <f t="shared" si="3"/>
         <v>1.2038091086453595</v>
       </c>
       <c r="W9">
         <v>1073741824</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="4">
         <v>30</v>
       </c>
-      <c r="Y9" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y9" s="41">
+        <f t="shared" si="4"/>
         <v>105658291.74210817</v>
       </c>
-      <c r="Z9" s="44">
-        <f t="shared" si="3"/>
+      <c r="Z9" s="35">
+        <f t="shared" si="5"/>
         <v>105498420.48379807</v>
       </c>
-      <c r="AA9" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA9" s="34">
+        <f t="shared" si="6"/>
         <v>131654739.36148039</v>
       </c>
-      <c r="AB9" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB9" s="34">
+        <f t="shared" si="7"/>
         <v>132884728.07153244</v>
       </c>
-      <c r="AC9" s="43">
-        <f t="shared" si="6"/>
+      <c r="AC9" s="34">
+        <f t="shared" si="8"/>
         <v>133066041.41158274</v>
       </c>
-      <c r="AD9" s="43">
-        <f t="shared" si="7"/>
+      <c r="AD9" s="34">
+        <f t="shared" si="9"/>
         <v>124940723.13157652</v>
       </c>
-      <c r="AE9" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE9" s="34">
+        <f t="shared" si="10"/>
         <v>128981095.52181435</v>
       </c>
-      <c r="AF9" s="43">
-        <f t="shared" si="9"/>
+      <c r="AF9" s="34">
+        <f t="shared" si="11"/>
         <v>130716168.63275021</v>
       </c>
-      <c r="AG9" s="45">
-        <f t="shared" si="10"/>
+      <c r="AG9" s="36">
+        <f t="shared" si="12"/>
         <v>127192414.00305857</v>
       </c>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="49"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="40"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>31</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>21.160299999999999</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>21.159199999999998</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>16.9802</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="13">
         <v>16.703600000000002</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="12">
         <v>16.932099999999998</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>17.4956</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="12">
         <v>17.101299999999998</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="12">
         <v>16.908000000000001</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="12">
         <v>17.3062</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="6">
+      <c r="K10" s="49"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="4">
         <v>31</v>
       </c>
-      <c r="N10" s="32">
-        <f>$B10/C10</f>
+      <c r="N10" s="23">
+        <f t="shared" si="0"/>
         <v>1.0000519868426028</v>
       </c>
-      <c r="O10" s="33">
-        <f>$B10/D10</f>
+      <c r="O10" s="24">
+        <f t="shared" si="3"/>
         <v>1.2461749567142908</v>
       </c>
-      <c r="P10" s="34">
-        <f>$B10/E10</f>
+      <c r="P10" s="25">
+        <f t="shared" si="3"/>
         <v>1.2668107473837973</v>
       </c>
-      <c r="Q10" s="33">
-        <f>$B10/F10</f>
+      <c r="Q10" s="24">
+        <f t="shared" si="3"/>
         <v>1.2497150383000337</v>
       </c>
-      <c r="R10" s="33">
-        <f>$B10/G10</f>
+      <c r="R10" s="24">
+        <f t="shared" si="3"/>
         <v>1.2094640938293058</v>
       </c>
-      <c r="S10" s="33">
-        <f>$B10/H10</f>
+      <c r="S10" s="24">
+        <f t="shared" si="3"/>
         <v>1.2373503768719338</v>
       </c>
-      <c r="T10" s="33">
-        <f>$B10/I10</f>
+      <c r="T10" s="24">
+        <f t="shared" si="3"/>
         <v>1.2514963330967588</v>
       </c>
-      <c r="U10" s="36">
-        <f>$B10/J10</f>
+      <c r="U10" s="27">
+        <f t="shared" si="3"/>
         <v>1.2227005350683569</v>
       </c>
       <c r="W10">
         <v>2147483648</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="4">
         <v>31</v>
       </c>
-      <c r="Y10" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y10" s="41">
+        <f t="shared" si="4"/>
         <v>101486446.22240706</v>
       </c>
-      <c r="Z10" s="44">
-        <f t="shared" si="3"/>
+      <c r="Z10" s="35">
+        <f t="shared" si="5"/>
         <v>101491722.18231314</v>
       </c>
-      <c r="AA10" s="43">
-        <f t="shared" si="4"/>
+      <c r="AA10" s="34">
+        <f t="shared" si="6"/>
         <v>126469867.72829531</v>
       </c>
-      <c r="AB10" s="43">
-        <f t="shared" si="5"/>
+      <c r="AB10" s="34">
+        <f t="shared" si="7"/>
         <v>128564120.78833304</v>
       </c>
-      <c r="AC10" s="43">
-        <f t="shared" si="6"/>
+      <c r="AC10" s="34">
+        <f t="shared" si="8"/>
         <v>126829138.02776974</v>
       </c>
-      <c r="AD10" s="43">
-        <f t="shared" si="7"/>
+      <c r="AD10" s="34">
+        <f t="shared" si="9"/>
         <v>122744212.71634011</v>
       </c>
-      <c r="AE10" s="43">
-        <f t="shared" si="8"/>
+      <c r="AE10" s="34">
+        <f t="shared" si="10"/>
         <v>125574292.48068862</v>
       </c>
-      <c r="AF10" s="43">
-        <f t="shared" si="9"/>
+      <c r="AF10" s="34">
+        <f t="shared" si="11"/>
         <v>127009915.30636384</v>
       </c>
-      <c r="AG10" s="45">
-        <f t="shared" si="10"/>
+      <c r="AG10" s="36">
+        <f t="shared" si="12"/>
         <v>124087532.09832314</v>
       </c>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="49"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="40"/>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>32</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="14">
         <v>43.412100000000002</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="15">
         <v>43.29</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="16">
         <v>35.098500000000001</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="17">
         <v>34.433999999999997</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>34.872</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="16">
         <v>36.127400000000002</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="16">
         <v>35.583300000000001</v>
       </c>
-      <c r="I11" s="20">
+      <c r="I11" s="16">
         <v>35.2363</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="16">
         <v>35.768999999999998</v>
       </c>
-      <c r="K11" s="23"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="6">
+      <c r="K11" s="50"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="4">
         <v>32</v>
       </c>
-      <c r="N11" s="37">
-        <f>$B11/C11</f>
+      <c r="N11" s="28">
+        <f t="shared" si="0"/>
         <v>1.002820512820513</v>
       </c>
-      <c r="O11" s="38">
-        <f>$B11/D11</f>
+      <c r="O11" s="29">
+        <f t="shared" si="3"/>
         <v>1.2368648232830464</v>
       </c>
-      <c r="P11" s="39">
-        <f>$B11/E11</f>
+      <c r="P11" s="30">
+        <f t="shared" si="3"/>
         <v>1.2607335772782717</v>
       </c>
-      <c r="Q11" s="38">
-        <f>$B11/F11</f>
+      <c r="Q11" s="29">
+        <f t="shared" si="3"/>
         <v>1.2448984858912595</v>
       </c>
-      <c r="R11" s="38">
-        <f>$B11/G11</f>
+      <c r="R11" s="29">
+        <f t="shared" si="3"/>
         <v>1.2016391990566717</v>
       </c>
-      <c r="S11" s="38">
-        <f>$B11/H11</f>
+      <c r="S11" s="29">
+        <f t="shared" si="3"/>
         <v>1.2200133208555699</v>
       </c>
-      <c r="T11" s="38">
-        <f>$B11/I11</f>
+      <c r="T11" s="29">
+        <f t="shared" si="3"/>
         <v>1.2320277668200124</v>
       </c>
-      <c r="U11" s="40">
-        <f>$B11/J11</f>
+      <c r="U11" s="31">
+        <f t="shared" si="3"/>
         <v>1.2136794430931814</v>
       </c>
       <c r="W11">
         <v>4294967296</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="4">
         <v>32</v>
       </c>
-      <c r="Y11" s="50">
-        <f t="shared" si="2"/>
+      <c r="Y11" s="41">
+        <f t="shared" si="4"/>
         <v>98934796.888425112</v>
       </c>
-      <c r="Z11" s="46">
-        <f t="shared" si="3"/>
+      <c r="Z11" s="37">
+        <f t="shared" si="5"/>
         <v>99213843.751443759</v>
       </c>
-      <c r="AA11" s="47">
-        <f t="shared" si="4"/>
+      <c r="AA11" s="38">
+        <f t="shared" si="6"/>
         <v>122368970.06994601</v>
       </c>
-      <c r="AB11" s="47">
-        <f t="shared" si="5"/>
+      <c r="AB11" s="38">
+        <f t="shared" si="7"/>
         <v>124730420.3984434</v>
       </c>
-      <c r="AC11" s="47">
-        <f t="shared" si="6"/>
+      <c r="AC11" s="38">
+        <f t="shared" si="8"/>
         <v>123163778.84835972</v>
       </c>
-      <c r="AD11" s="47">
-        <f t="shared" si="7"/>
+      <c r="AD11" s="38">
+        <f t="shared" si="9"/>
         <v>118883930.09184164</v>
       </c>
-      <c r="AE11" s="47">
-        <f t="shared" si="8"/>
+      <c r="AE11" s="38">
+        <f t="shared" si="10"/>
         <v>120701770.10001883</v>
       </c>
-      <c r="AF11" s="47">
-        <f t="shared" si="9"/>
+      <c r="AF11" s="38">
+        <f t="shared" si="11"/>
         <v>121890416.8712379</v>
       </c>
-      <c r="AG11" s="48">
-        <f t="shared" si="10"/>
+      <c r="AG11" s="39">
+        <f t="shared" si="12"/>
         <v>120075129.19008081</v>
       </c>
-      <c r="AI11" s="6"/>
-      <c r="AJ11" s="49"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="40"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z13" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="30">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="30">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="30">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="30">
-        <v>6</v>
-      </c>
-      <c r="AF13" s="30">
-        <v>7</v>
-      </c>
-      <c r="AG13" s="31">
-        <v>8</v>
-      </c>
+      <c r="Z13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Y14" s="49">
+      <c r="Y14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="21">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="21">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="21">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="21">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y15" s="40">
         <f>SUM(Y4:Y11)/8</f>
         <v>112494969.10218281</v>
       </c>
-      <c r="Z14" s="49">
+      <c r="Z15" s="40">
         <f>SUM(Z4:Z11)/8</f>
         <v>113273621.90486951</v>
       </c>
-      <c r="AA14" s="49">
-        <f t="shared" ref="AA14:AG14" si="11">SUM(AA4:AA11)/8</f>
+      <c r="AA15" s="40">
+        <f>SUM(AA4:AA11)/8</f>
         <v>138432910.79347843</v>
       </c>
-      <c r="AB14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AB15" s="40">
+        <f>SUM(AB4:AB11)/8</f>
         <v>144467549.70559773</v>
       </c>
-      <c r="AC14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AC15" s="40">
+        <f>SUM(AC4:AC11)/8</f>
         <v>146294707.42594656</v>
       </c>
-      <c r="AD14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AD15" s="40">
+        <f>SUM(AD4:AD11)/8</f>
         <v>136458907.72512588</v>
       </c>
-      <c r="AE14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AE15" s="40">
+        <f>SUM(AE4:AE11)/8</f>
         <v>139195030.59377518</v>
       </c>
-      <c r="AF14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AF15" s="40">
+        <f>SUM(AF4:AF11)/8</f>
         <v>136780417.09230149</v>
       </c>
-      <c r="AG14" s="49">
-        <f t="shared" si="11"/>
+      <c r="AG15" s="40">
+        <f>SUM(AG4:AG11)/8</f>
         <v>126559506.17843254</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z15" s="24">
-        <f>Z14/$Y14</f>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="Y16" s="19">
+        <f>Y15/$Y15</f>
+        <v>1</v>
+      </c>
+      <c r="Z16" s="19">
+        <f>Z15/$Y15</f>
         <v>1.0069216677768</v>
       </c>
-      <c r="AA15" s="24">
-        <f t="shared" ref="AA15:AG15" si="12">AA14/$Y14</f>
+      <c r="AA16" s="19">
+        <f>AA15/$Y15</f>
         <v>1.2305697925721049</v>
       </c>
-      <c r="AB15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AB16" s="19">
+        <f>AB15/$Y15</f>
         <v>1.284213426241072</v>
       </c>
-      <c r="AC15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AC16" s="19">
+        <f>AC15/$Y15</f>
         <v>1.300455554532953</v>
       </c>
-      <c r="AD15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AD16" s="19">
+        <f>AD15/$Y15</f>
         <v>1.2130223139238863</v>
       </c>
-      <c r="AE15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AE16" s="19">
+        <f>AE15/$Y15</f>
         <v>1.2373444937554483</v>
       </c>
-      <c r="AF15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AF16" s="19">
+        <f>AF15/$Y15</f>
         <v>1.2158803027721126</v>
       </c>
-      <c r="AG15" s="24">
-        <f t="shared" si="12"/>
+      <c r="AG16" s="19">
+        <f>AG15/$Y15</f>
         <v>1.1250236982906716</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="Z13:AG13"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="K4:K11"/>
     <mergeCell ref="N1:U1"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="Z1:AG1"/>
     <mergeCell ref="Z2:AG2"/>
     <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="K4:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3213,24 +4725,1524 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:U17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="D2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.292435</v>
+      </c>
+      <c r="D4" s="52">
+        <v>3.8092899999999999E-2</v>
+      </c>
+      <c r="E4" s="51">
+        <v>4.2406100000000002E-2</v>
+      </c>
+      <c r="F4" s="51">
+        <v>5.9418899999999997E-2</v>
+      </c>
+      <c r="G4" s="53">
+        <v>7.3562100000000005E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>25</v>
+      </c>
+      <c r="J4" s="63">
+        <f>$B4/D4</f>
+        <v>7.6768899191187865</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" ref="K4:M4" si="0">$B4/E4</f>
+        <v>6.8960597649866404</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="0"/>
+        <v>4.9215821901785466</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="0"/>
+        <v>3.9753487189734931</v>
+      </c>
+      <c r="O4">
+        <v>33554432</v>
+      </c>
+      <c r="P4" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>O4/B4</f>
+        <v>114741504.94981791</v>
+      </c>
+      <c r="R4" s="40">
+        <f>$O4/D4</f>
+        <v>880857902.65377545</v>
+      </c>
+      <c r="S4" s="40">
+        <f>$O4/E4</f>
+        <v>791264275.65845478</v>
+      </c>
+      <c r="T4" s="40">
+        <f t="shared" ref="S4:U4" si="1">$O4/F4</f>
+        <v>564709747.23530734</v>
+      </c>
+      <c r="U4" s="40">
+        <f t="shared" si="1"/>
+        <v>456137494.71534932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>26</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.50765099999999996</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.158497</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.17446700000000001</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0.17577200000000001</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.17968899999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>26</v>
+      </c>
+      <c r="J5" s="63">
+        <f t="shared" ref="J5:J11" si="2">$B5/D5</f>
+        <v>3.2029060486949277</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" ref="K5:K11" si="3">$B5/E5</f>
+        <v>2.9097250482899342</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" ref="L5:L11" si="4">$B5/F5</f>
+        <v>2.8881221127369541</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" ref="M5:M11" si="5">$B5/G5</f>
+        <v>2.8251645899303797</v>
+      </c>
+      <c r="O5">
+        <v>67108864</v>
+      </c>
+      <c r="P5" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>O5/B5</f>
+        <v>132194881.91690749</v>
+      </c>
+      <c r="R5" s="40">
+        <f t="shared" ref="R5:R11" si="6">$O5/D5</f>
+        <v>423407786.8981747</v>
+      </c>
+      <c r="S5" s="40">
+        <f t="shared" ref="S5:S11" si="7">$O5/E5</f>
+        <v>384650759.16935581</v>
+      </c>
+      <c r="T5" s="40">
+        <f t="shared" ref="T5:T11" si="8">$O5/F5</f>
+        <v>381794961.65487105</v>
+      </c>
+      <c r="U5" s="40">
+        <f t="shared" ref="U5:U11" si="9">$O5/G5</f>
+        <v>373472299.3616749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.1070500000000001</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.41505700000000001</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.41058</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0.46311099999999999</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.50579399999999997</v>
+      </c>
+      <c r="I6" s="4">
+        <v>27</v>
+      </c>
+      <c r="J6" s="63">
+        <f t="shared" si="2"/>
+        <v>2.6672240198334207</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="3"/>
+        <v>2.6963076623313365</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="4"/>
+        <v>2.390463625351158</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="5"/>
+        <v>2.1887369166103201</v>
+      </c>
+      <c r="O6">
+        <v>134217728</v>
+      </c>
+      <c r="P6" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="40">
+        <f t="shared" ref="Q5:Q11" si="10">O6/B6</f>
+        <v>121239084.05221082</v>
+      </c>
+      <c r="R6" s="40">
+        <f t="shared" si="6"/>
+        <v>323371797.12665969</v>
+      </c>
+      <c r="S6" s="40">
+        <f t="shared" si="7"/>
+        <v>326897871.30400896</v>
+      </c>
+      <c r="T6" s="40">
+        <f t="shared" si="8"/>
+        <v>289817620.39770162</v>
+      </c>
+      <c r="U6" s="40">
+        <f t="shared" si="9"/>
+        <v>265360459.00109532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>28</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.3196400000000001</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.92916500000000002</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.91961899999999996</v>
+      </c>
+      <c r="F7" s="51">
+        <v>1.0476399999999999</v>
+      </c>
+      <c r="G7" s="53">
+        <v>1.16812</v>
+      </c>
+      <c r="I7" s="4">
+        <v>28</v>
+      </c>
+      <c r="J7" s="63">
+        <f t="shared" si="2"/>
+        <v>2.4964780205883779</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="3"/>
+        <v>2.5223924255588459</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2141575350311178</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="5"/>
+        <v>1.9857891312536384</v>
+      </c>
+      <c r="O7">
+        <v>268435456</v>
+      </c>
+      <c r="P7" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="40">
+        <f t="shared" si="10"/>
+        <v>115722894.93197219</v>
+      </c>
+      <c r="R7" s="40">
+        <f t="shared" si="6"/>
+        <v>288899663.67652678</v>
+      </c>
+      <c r="S7" s="40">
+        <f t="shared" si="7"/>
+        <v>291898553.64014882</v>
+      </c>
+      <c r="T7" s="40">
+        <f t="shared" si="8"/>
+        <v>256228719.7892406</v>
+      </c>
+      <c r="U7" s="40">
+        <f t="shared" si="9"/>
+        <v>229801266.99311712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.8814500000000001</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1.98807</v>
+      </c>
+      <c r="E8" s="51">
+        <v>2.1307700000000001</v>
+      </c>
+      <c r="F8" s="51">
+        <v>2.27494</v>
+      </c>
+      <c r="G8" s="53">
+        <v>2.5029699999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>29</v>
+      </c>
+      <c r="J8" s="63">
+        <f t="shared" si="2"/>
+        <v>2.4553712897433191</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="3"/>
+        <v>2.2909323859449868</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="4"/>
+        <v>2.1457488988720583</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="5"/>
+        <v>1.950263087452107</v>
+      </c>
+      <c r="O8">
+        <v>536870912</v>
+      </c>
+      <c r="P8" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="40">
+        <f t="shared" si="10"/>
+        <v>109981852.11361378</v>
+      </c>
+      <c r="R8" s="40">
+        <f t="shared" si="6"/>
+        <v>270046282.07256281</v>
+      </c>
+      <c r="S8" s="40">
+        <f t="shared" si="7"/>
+        <v>251960986.87328994</v>
+      </c>
+      <c r="T8" s="40">
+        <f t="shared" si="8"/>
+        <v>235993438.06869632</v>
+      </c>
+      <c r="U8" s="40">
+        <f t="shared" si="9"/>
+        <v>214493546.46679744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>30</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10.1624</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4.17164</v>
+      </c>
+      <c r="E9" s="51">
+        <v>3.9708299999999999</v>
+      </c>
+      <c r="F9" s="51">
+        <v>4.6124900000000002</v>
+      </c>
+      <c r="G9" s="53">
+        <v>5.2347900000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <v>30</v>
+      </c>
+      <c r="J9" s="63">
+        <f t="shared" si="2"/>
+        <v>2.4360683088665369</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="3"/>
+        <v>2.5592634285527209</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2032351289650491</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="5"/>
+        <v>1.9413195180704479</v>
+      </c>
+      <c r="O9">
+        <v>1073741824</v>
+      </c>
+      <c r="P9" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="40">
+        <f t="shared" si="10"/>
+        <v>105658291.74210817</v>
+      </c>
+      <c r="R9" s="40">
+        <f t="shared" si="6"/>
+        <v>257390816.08192462</v>
+      </c>
+      <c r="S9" s="40">
+        <f t="shared" si="7"/>
+        <v>270407401.97893137</v>
+      </c>
+      <c r="T9" s="40">
+        <f t="shared" si="8"/>
+        <v>232790060.03265047</v>
+      </c>
+      <c r="U9" s="40">
+        <f t="shared" si="9"/>
+        <v>205116504.00493619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" s="10">
+        <v>21.160299999999999</v>
+      </c>
+      <c r="D10" s="52">
+        <v>8.6031099999999991</v>
+      </c>
+      <c r="E10" s="51">
+        <v>8.2714400000000001</v>
+      </c>
+      <c r="F10" s="51">
+        <v>9.6100300000000001</v>
+      </c>
+      <c r="G10" s="53">
+        <v>10.588800000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>31</v>
+      </c>
+      <c r="J10" s="63">
+        <f t="shared" si="2"/>
+        <v>2.4596105361898197</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="3"/>
+        <v>2.5582365343882079</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="4"/>
+        <v>2.2018973926200021</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="5"/>
+        <v>1.9983661982472043</v>
+      </c>
+      <c r="O10">
+        <v>2147483648</v>
+      </c>
+      <c r="P10" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="40">
+        <f t="shared" si="10"/>
+        <v>101486446.22240706</v>
+      </c>
+      <c r="R10" s="40">
+        <f t="shared" si="6"/>
+        <v>249617132.40909395</v>
+      </c>
+      <c r="S10" s="40">
+        <f t="shared" si="7"/>
+        <v>259626334.47138587</v>
+      </c>
+      <c r="T10" s="40">
+        <f t="shared" si="8"/>
+        <v>223462741.32338816</v>
+      </c>
+      <c r="U10" s="40">
+        <f t="shared" si="9"/>
+        <v>202807083.71109095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>32</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43.412100000000002</v>
+      </c>
+      <c r="D11" s="54">
+        <v>17.634</v>
+      </c>
+      <c r="E11" s="18">
+        <v>17.037400000000002</v>
+      </c>
+      <c r="F11" s="18">
+        <v>19.139600000000002</v>
+      </c>
+      <c r="G11" s="55">
+        <v>21.650700000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>32</v>
+      </c>
+      <c r="J11" s="64">
+        <f t="shared" si="2"/>
+        <v>2.4618407621640013</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" si="3"/>
+        <v>2.5480472372545107</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="4"/>
+        <v>2.2681821981650607</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="5"/>
+        <v>2.0051129986559326</v>
+      </c>
+      <c r="O11">
+        <v>4294967296</v>
+      </c>
+      <c r="P11" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="40">
+        <f t="shared" si="10"/>
+        <v>98934796.888425112</v>
+      </c>
+      <c r="R11" s="40">
+        <f t="shared" si="6"/>
+        <v>243561715.77634114</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="7"/>
+        <v>252090535.87988776</v>
+      </c>
+      <c r="T11" s="40">
+        <f t="shared" si="8"/>
+        <v>224402145.08140188</v>
+      </c>
+      <c r="U11" s="40">
+        <f t="shared" si="9"/>
+        <v>198375447.26036572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="57">
+        <v>4</v>
+      </c>
+      <c r="S14" s="58">
+        <v>8</v>
+      </c>
+      <c r="T14" s="58">
+        <v>16</v>
+      </c>
+      <c r="U14" s="59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="40">
+        <f>SUM(Q4:Q11)/8</f>
+        <v>112494969.10218281</v>
+      </c>
+      <c r="R16" s="40">
+        <f>SUM(R4:R11)/8</f>
+        <v>367144137.08688235</v>
+      </c>
+      <c r="S16" s="40">
+        <f>SUM(S4:S11)/8</f>
+        <v>353599589.87193292</v>
+      </c>
+      <c r="T16" s="40">
+        <f>SUM(T4:T11)/8</f>
+        <v>301149929.19790715</v>
+      </c>
+      <c r="U16" s="40">
+        <f>SUM(U4:U11)/8</f>
+        <v>268195512.68930337</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="19">
+        <f>Q16/$Q16</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="19">
+        <f>R16/$Q16</f>
+        <v>3.2636493882085831</v>
+      </c>
+      <c r="S17" s="19">
+        <f>S16/$Q16</f>
+        <v>3.1432480287251514</v>
+      </c>
+      <c r="T17" s="19">
+        <f>T16/$Q16</f>
+        <v>2.6770079729019969</v>
+      </c>
+      <c r="U17" s="19">
+        <f>U16/$Q16</f>
+        <v>2.3840667260923709</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="Q13:Q14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+    </row>
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
+      <c r="D2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.20188300000000001</v>
+      </c>
+      <c r="D4" s="52">
+        <v>3.8092899999999999E-2</v>
+      </c>
+      <c r="E4" s="51">
+        <v>4.2406100000000002E-2</v>
+      </c>
+      <c r="F4" s="51">
+        <v>5.9418899999999997E-2</v>
+      </c>
+      <c r="G4" s="53">
+        <v>7.3562100000000005E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>25</v>
+      </c>
+      <c r="J4" s="63">
+        <f>$B4/D4</f>
+        <v>5.2997540224031257</v>
+      </c>
+      <c r="K4" s="24">
+        <f t="shared" ref="K4:M11" si="0">$B4/E4</f>
+        <v>4.7607065964566422</v>
+      </c>
+      <c r="L4" s="24">
+        <f t="shared" si="0"/>
+        <v>3.3976226419539914</v>
+      </c>
+      <c r="M4" s="27">
+        <f t="shared" si="0"/>
+        <v>2.7443887545352839</v>
+      </c>
+      <c r="O4">
+        <v>33554432</v>
+      </c>
+      <c r="P4" s="4">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>O4/B4</f>
+        <v>166207318.10008767</v>
+      </c>
+      <c r="R4" s="40">
+        <f>$O4/D4</f>
+        <v>880857902.65377545</v>
+      </c>
+      <c r="S4" s="40">
+        <f>$O4/E4</f>
+        <v>791264275.65845478</v>
+      </c>
+      <c r="T4" s="40">
+        <f t="shared" ref="T4:U11" si="1">$O4/F4</f>
+        <v>564709747.23530734</v>
+      </c>
+      <c r="U4" s="40">
+        <f t="shared" si="1"/>
+        <v>456137494.71534932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12">
+        <v>0.40808100000000003</v>
+      </c>
+      <c r="D5" s="52">
+        <v>0.158497</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.17446700000000001</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0.17577200000000001</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.17968899999999999</v>
+      </c>
+      <c r="I5" s="4">
+        <v>26</v>
+      </c>
+      <c r="J5" s="63">
+        <f t="shared" ref="J5:J11" si="2">$B5/D5</f>
+        <v>2.5746922654687472</v>
+      </c>
+      <c r="K5" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3390154011933491</v>
+      </c>
+      <c r="L5" s="24">
+        <f t="shared" si="0"/>
+        <v>2.3216496370297888</v>
+      </c>
+      <c r="M5" s="27">
+        <f t="shared" si="0"/>
+        <v>2.2710405200095725</v>
+      </c>
+      <c r="O5">
+        <v>67108864</v>
+      </c>
+      <c r="P5" s="4">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="40">
+        <f>O5/B5</f>
+        <v>164449861.6696195</v>
+      </c>
+      <c r="R5" s="40">
+        <f t="shared" ref="R5:S11" si="3">$O5/D5</f>
+        <v>423407786.8981747</v>
+      </c>
+      <c r="S5" s="40">
+        <f t="shared" si="3"/>
+        <v>384650759.16935581</v>
+      </c>
+      <c r="T5" s="40">
+        <f t="shared" si="1"/>
+        <v>381794961.65487105</v>
+      </c>
+      <c r="U5" s="40">
+        <f t="shared" si="1"/>
+        <v>373472299.3616749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13">
+        <v>0.87136800000000003</v>
+      </c>
+      <c r="D6" s="52">
+        <v>0.41505700000000001</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.41058</v>
+      </c>
+      <c r="F6" s="51">
+        <v>0.46311099999999999</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.50579399999999997</v>
+      </c>
+      <c r="I6" s="4">
+        <v>27</v>
+      </c>
+      <c r="J6" s="63">
+        <f t="shared" si="2"/>
+        <v>2.0993935772677008</v>
+      </c>
+      <c r="K6" s="24">
+        <f t="shared" si="0"/>
+        <v>2.1222855472745872</v>
+      </c>
+      <c r="L6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8815532345377244</v>
+      </c>
+      <c r="M6" s="27">
+        <f t="shared" si="0"/>
+        <v>1.7227725121294442</v>
+      </c>
+      <c r="O6">
+        <v>134217728</v>
+      </c>
+      <c r="P6" s="4">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="40">
+        <f t="shared" ref="Q6:Q12" si="4">O6/B6</f>
+        <v>154031050.02708384</v>
+      </c>
+      <c r="R6" s="40">
+        <f t="shared" si="3"/>
+        <v>323371797.12665969</v>
+      </c>
+      <c r="S6" s="40">
+        <f t="shared" si="3"/>
+        <v>326897871.30400896</v>
+      </c>
+      <c r="T6" s="40">
+        <f t="shared" si="1"/>
+        <v>289817620.39770162</v>
+      </c>
+      <c r="U6" s="40">
+        <f t="shared" si="1"/>
+        <v>265360459.00109532</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>28</v>
+      </c>
+      <c r="B7" s="13">
+        <v>1.8266</v>
+      </c>
+      <c r="D7" s="52">
+        <v>0.92916500000000002</v>
+      </c>
+      <c r="E7" s="51">
+        <v>0.91961899999999996</v>
+      </c>
+      <c r="F7" s="51">
+        <v>1.0476399999999999</v>
+      </c>
+      <c r="G7" s="53">
+        <v>1.16812</v>
+      </c>
+      <c r="I7" s="4">
+        <v>28</v>
+      </c>
+      <c r="J7" s="63">
+        <f t="shared" si="2"/>
+        <v>1.9658510598225287</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9862573522295648</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7435378565155972</v>
+      </c>
+      <c r="M7" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5637092079580865</v>
+      </c>
+      <c r="O7">
+        <v>268435456</v>
+      </c>
+      <c r="P7" s="4">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="40">
+        <f t="shared" si="4"/>
+        <v>146959080.2584036</v>
+      </c>
+      <c r="R7" s="40">
+        <f t="shared" si="3"/>
+        <v>288899663.67652678</v>
+      </c>
+      <c r="S7" s="40">
+        <f t="shared" si="3"/>
+        <v>291898553.64014882</v>
+      </c>
+      <c r="T7" s="40">
+        <f t="shared" si="1"/>
+        <v>256228719.7892406</v>
+      </c>
+      <c r="U7" s="40">
+        <f t="shared" si="1"/>
+        <v>229801266.99311712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>29</v>
+      </c>
+      <c r="B8" s="13">
+        <v>3.8927999999999998</v>
+      </c>
+      <c r="D8" s="52">
+        <v>1.98807</v>
+      </c>
+      <c r="E8" s="51">
+        <v>2.1307700000000001</v>
+      </c>
+      <c r="F8" s="51">
+        <v>2.27494</v>
+      </c>
+      <c r="G8" s="53">
+        <v>2.5029699999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>29</v>
+      </c>
+      <c r="J8" s="63">
+        <f t="shared" si="2"/>
+        <v>1.958079946883158</v>
+      </c>
+      <c r="K8" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8269451888284516</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7111660087738578</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5552723364642804</v>
+      </c>
+      <c r="O8">
+        <v>536870912</v>
+      </c>
+      <c r="P8" s="4">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="40">
+        <f t="shared" si="4"/>
+        <v>137913818.33127826</v>
+      </c>
+      <c r="R8" s="40">
+        <f t="shared" si="3"/>
+        <v>270046282.07256281</v>
+      </c>
+      <c r="S8" s="40">
+        <f t="shared" si="3"/>
+        <v>251960986.87328994</v>
+      </c>
+      <c r="T8" s="40">
+        <f t="shared" si="1"/>
+        <v>235993438.06869632</v>
+      </c>
+      <c r="U8" s="40">
+        <f t="shared" si="1"/>
+        <v>214493546.46679744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>30</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8.0802499999999995</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4.17164</v>
+      </c>
+      <c r="E9" s="51">
+        <v>3.9708299999999999</v>
+      </c>
+      <c r="F9" s="51">
+        <v>4.6124900000000002</v>
+      </c>
+      <c r="G9" s="53">
+        <v>5.2347900000000003</v>
+      </c>
+      <c r="I9" s="4">
+        <v>30</v>
+      </c>
+      <c r="J9" s="63">
+        <f t="shared" si="2"/>
+        <v>1.9369480587970198</v>
+      </c>
+      <c r="K9" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0349020230027475</v>
+      </c>
+      <c r="L9" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7518195161398722</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="0"/>
+        <v>1.543567172704158</v>
+      </c>
+      <c r="O9">
+        <v>1073741824</v>
+      </c>
+      <c r="P9" s="4">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="40">
+        <f t="shared" si="4"/>
+        <v>132884728.07153244</v>
+      </c>
+      <c r="R9" s="40">
+        <f t="shared" si="3"/>
+        <v>257390816.08192462</v>
+      </c>
+      <c r="S9" s="40">
+        <f t="shared" si="3"/>
+        <v>270407401.97893137</v>
+      </c>
+      <c r="T9" s="40">
+        <f t="shared" si="1"/>
+        <v>232790060.03265047</v>
+      </c>
+      <c r="U9" s="40">
+        <f t="shared" si="1"/>
+        <v>205116504.00493619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>31</v>
+      </c>
+      <c r="B10" s="13">
+        <v>16.703600000000002</v>
+      </c>
+      <c r="D10" s="52">
+        <v>8.6031099999999991</v>
+      </c>
+      <c r="E10" s="51">
+        <v>8.2714400000000001</v>
+      </c>
+      <c r="F10" s="51">
+        <v>9.6100300000000001</v>
+      </c>
+      <c r="G10" s="53">
+        <v>10.588800000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>31</v>
+      </c>
+      <c r="J10" s="63">
+        <f t="shared" si="2"/>
+        <v>1.9415769413619033</v>
+      </c>
+      <c r="K10" s="24">
+        <f t="shared" si="0"/>
+        <v>2.0194307158124825</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="0"/>
+        <v>1.7381423367044642</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.5774780900574192</v>
+      </c>
+      <c r="O10">
+        <v>2147483648</v>
+      </c>
+      <c r="P10" s="4">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="40">
+        <f t="shared" si="4"/>
+        <v>128564120.78833304</v>
+      </c>
+      <c r="R10" s="40">
+        <f t="shared" si="3"/>
+        <v>249617132.40909395</v>
+      </c>
+      <c r="S10" s="40">
+        <f t="shared" si="3"/>
+        <v>259626334.47138587</v>
+      </c>
+      <c r="T10" s="40">
+        <f t="shared" si="1"/>
+        <v>223462741.32338816</v>
+      </c>
+      <c r="U10" s="40">
+        <f t="shared" si="1"/>
+        <v>202807083.71109095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>32</v>
+      </c>
+      <c r="B11" s="17">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="D11" s="54">
+        <v>17.634</v>
+      </c>
+      <c r="E11" s="18">
+        <v>17.037400000000002</v>
+      </c>
+      <c r="F11" s="18">
+        <v>19.139600000000002</v>
+      </c>
+      <c r="G11" s="55">
+        <v>21.650700000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>32</v>
+      </c>
+      <c r="J11" s="64">
+        <f t="shared" si="2"/>
+        <v>1.9527050017012588</v>
+      </c>
+      <c r="K11" s="29">
+        <f t="shared" si="0"/>
+        <v>2.021083029100684</v>
+      </c>
+      <c r="L11" s="29">
+        <f t="shared" si="0"/>
+        <v>1.7990971598152519</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" si="0"/>
+        <v>1.590433565658385</v>
+      </c>
+      <c r="O11">
+        <v>4294967296</v>
+      </c>
+      <c r="P11" s="4">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="40">
+        <f t="shared" si="4"/>
+        <v>124730420.3984434</v>
+      </c>
+      <c r="R11" s="40">
+        <f t="shared" si="3"/>
+        <v>243561715.77634114</v>
+      </c>
+      <c r="S11" s="40">
+        <f t="shared" si="3"/>
+        <v>252090535.87988776</v>
+      </c>
+      <c r="T11" s="40">
+        <f t="shared" si="1"/>
+        <v>224402145.08140188</v>
+      </c>
+      <c r="U11" s="40">
+        <f t="shared" si="1"/>
+        <v>198375447.26036572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q13" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q14" s="46"/>
+      <c r="R14" s="57">
+        <v>4</v>
+      </c>
+      <c r="S14" s="58">
+        <v>8</v>
+      </c>
+      <c r="T14" s="58">
+        <v>16</v>
+      </c>
+      <c r="U14" s="59">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="U15" s="62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q16" s="40">
+        <f>SUM(Q4:Q11)/8</f>
+        <v>144467549.70559773</v>
+      </c>
+      <c r="R16" s="40">
+        <f>SUM(R4:R11)/8</f>
+        <v>367144137.08688235</v>
+      </c>
+      <c r="S16" s="40">
+        <f>SUM(S4:S11)/8</f>
+        <v>353599589.87193292</v>
+      </c>
+      <c r="T16" s="40">
+        <f>SUM(T4:T11)/8</f>
+        <v>301149929.19790715</v>
+      </c>
+      <c r="U16" s="40">
+        <f>SUM(U4:U11)/8</f>
+        <v>268195512.68930337</v>
+      </c>
+    </row>
+    <row r="17" spans="17:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="19">
+        <f>Q16/$Q16</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="19">
+        <f>R16/$Q16</f>
+        <v>2.5413605881394452</v>
+      </c>
+      <c r="S17" s="19">
+        <f>S16/$Q16</f>
+        <v>2.4476056428762969</v>
+      </c>
+      <c r="T17" s="19">
+        <f>T16/$Q16</f>
+        <v>2.0845506815309292</v>
+      </c>
+      <c r="U17" s="19">
+        <f>U16/$Q16</f>
+        <v>1.8564412093639289</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:U13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project-2/results/spreadsheet/SpeedUps.xlsx
+++ b/project-2/results/spreadsheet/SpeedUps.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="OMP" sheetId="1" r:id="rId1"/>
     <sheet name="MPIvsSEQ" sheetId="2" r:id="rId2"/>
     <sheet name="MPIvsOMP" sheetId="4" r:id="rId3"/>
+    <sheet name="MPI&amp;OMPvsSEQ" sheetId="5" r:id="rId4"/>
+    <sheet name="MPI&amp;OMPvsOMP" sheetId="8" r:id="rId5"/>
+    <sheet name="All" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="30">
   <si>
     <t>exp</t>
   </si>
@@ -83,12 +86,36 @@
   <si>
     <t>3 Threads</t>
   </si>
+  <si>
+    <t>threads</t>
+  </si>
+  <si>
+    <t>cores</t>
+  </si>
+  <si>
+    <t>proc</t>
+  </si>
+  <si>
+    <t>MPI &amp; OMP on 4 comps</t>
+  </si>
+  <si>
+    <t>3threads</t>
+  </si>
+  <si>
+    <t>2threads</t>
+  </si>
+  <si>
+    <t>1thread</t>
+  </si>
+  <si>
+    <t>MPI &amp; OMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +179,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -340,28 +380,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -369,9 +388,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -392,6 +408,69 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1119,11 +1198,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64322304"/>
-        <c:axId val="64322880"/>
+        <c:axId val="66246848"/>
+        <c:axId val="66247424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64322304"/>
+        <c:axId val="66246848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1153,12 +1232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64322880"/>
+        <c:crossAx val="66247424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64322880"/>
+        <c:axId val="66247424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7000000000000002"/>
@@ -1190,7 +1269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64322304"/>
+        <c:crossAx val="66246848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1219,6 +1298,890 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for OMP 3 threads / MPI / MPI&amp;OMP vs Sequencial</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$N$2:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OMP 3 Threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$N$5:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.448537023919795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2439956773287655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.270473554227376</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2699222599364941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2539688655980272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2576838587914978</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2668107473837973</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2607335772782717</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$O$2:$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI 4proc 1core</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$O$5:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.6768899191187865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2029060486949277</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6672240198334207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4964780205883779</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4553712897433191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4360683088665369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4596105361898197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4618407621640013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$P$2:$P$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI 8proc 2cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$P$5:$P$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6.8960597649866404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9097250482899342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6963076623313365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5223924255588459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2909323859449868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5592634285527209</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5582365343882079</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5480472372545107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$Q$2:$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI 16proc 4cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$Q$5:$Q$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.9215821901785466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8881221127369541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.390463625351158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2141575350311178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1457488988720583</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2032351289650491</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2018973926200021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2681821981650607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$R$2:$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MPI 32proc 8cores</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$R$5:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.9753487189734931</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8251645899303797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1887369166103201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9857891312536384</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.950263087452107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9413195180704479</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9983661982472043</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0051129986559326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$S$2:$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1core 4proc 3threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$S$5:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1119053761293305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7251407060619175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3699741860068677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1015044631157842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1146196890133799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1319709189978826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1761778033949799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1826352792827137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$T$2:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2cores 8proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$T$5:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.356808741691632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4923826964714428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8513109771802405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6476976864433963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4892022131001252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6571769978376314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5320025750436157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6608214375463524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$U$2:$U$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4cores 16proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$U$5:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6807010789355479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4338794339673693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4717061593385865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2836946462677457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.221132714209662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296428587100086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2592313810904163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2713507630971752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>All!$V$2:$V$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8cores 32proc 1thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>All!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>All!$V$5:$V$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4577758604657545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4418624786550902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222289133650897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9587749001460868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.990608586435259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9787991370111611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9790222870663936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0060117369807311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="234165312"/>
+        <c:axId val="234164736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="234165312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234164736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="234164736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="234165312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1340,11 +2303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213157568"/>
-        <c:axId val="213158144"/>
+        <c:axId val="213058688"/>
+        <c:axId val="213059264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213157568"/>
+        <c:axId val="213058688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1375,13 +2338,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213158144"/>
+        <c:crossAx val="213059264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213158144"/>
+        <c:axId val="213059264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000000"/>
@@ -1413,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213157568"/>
+        <c:crossAx val="213058688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1465,7 +2428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1553,11 +2515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213160448"/>
-        <c:axId val="213161024"/>
+        <c:axId val="213061568"/>
+        <c:axId val="213062144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213160448"/>
+        <c:axId val="213061568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -1581,19 +2543,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213161024"/>
+        <c:crossAx val="213062144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213161024"/>
+        <c:axId val="213062144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -1617,14 +2578,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213160448"/>
+        <c:crossAx val="213061568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2021,11 +2981,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222034688"/>
-        <c:axId val="222034112"/>
+        <c:axId val="213063872"/>
+        <c:axId val="213064448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222034688"/>
+        <c:axId val="213063872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2056,16 +3016,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222034112"/>
+        <c:crossAx val="213064448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222034112"/>
+        <c:axId val="213064448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
-          <c:min val="1"/>
+          <c:min val="1.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2074,7 +3034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222034688"/>
+        <c:crossAx val="213063872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2195,11 +3155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="282141824"/>
-        <c:axId val="282141248"/>
+        <c:axId val="211952768"/>
+        <c:axId val="211953344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="282141824"/>
+        <c:axId val="211952768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2230,13 +3190,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282141248"/>
+        <c:crossAx val="211953344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282141248"/>
+        <c:axId val="211953344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.3"/>
@@ -2268,7 +3228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282141824"/>
+        <c:crossAx val="211952768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2665,11 +3625,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256578624"/>
-        <c:axId val="256579200"/>
+        <c:axId val="211955072"/>
+        <c:axId val="211955648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256578624"/>
+        <c:axId val="211955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2684,10 +3644,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Exp</a:t>
                 </a:r>
               </a:p>
@@ -2700,12 +3660,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256579200"/>
+        <c:crossAx val="211955648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256579200"/>
+        <c:axId val="211955648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
@@ -2714,11 +3674,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256578624"/>
+        <c:crossAx val="211955072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2839,11 +3818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="262246912"/>
-        <c:axId val="262247488"/>
+        <c:axId val="211957952"/>
+        <c:axId val="211958528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="262246912"/>
+        <c:axId val="211957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2874,13 +3853,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262247488"/>
+        <c:crossAx val="211958528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="262247488"/>
+        <c:axId val="211958528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -2912,11 +3891,961 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="262246912"/>
+        <c:crossAx val="211957952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI&amp;OMP on 4 computer VS sequencial</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$J$2:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1core 4proc 3threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$J$5:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1119053761293305</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7251407060619175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3699741860068677</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1015044631157842</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1146196890133799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1319709189978826</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1761778033949799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1826352792827137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$K$2:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2cores 8proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$K$5:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.356808741691632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4923826964714428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8513109771802405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6476976864433963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4892022131001252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6571769978376314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5320025750436157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6608214375463524</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$L$2:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4cores 16proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$L$5:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.6807010789355479</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4338794339673693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4717061593385865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2836946462677457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.221132714209662</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2296428587100086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2592313810904163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2713507630971752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$M$2:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8cores 32proc 1thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsSEQ'!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.4577758604657545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4418624786550902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2222289133650897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9587749001460868</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.990608586435259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9787991370111611</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9790222870663936</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0060117369807311</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230305152"/>
+        <c:axId val="230304576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="230305152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230304576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230304576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230305152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SpeedUp for MPI&amp;OMP on 4 computer VS OMP 3 threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$J$2:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1core 4proc 3threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$J$5:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.6000676835847889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9944965034451889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6525339113070161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4422789968819694</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4838094265825288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4902688359277967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5072236006478352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5244312808369318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$K$2:$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2cores 8proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$K$5:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.5305439471982893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0035300298015035</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2442899088239838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0849289519311216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98505902450218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1127543136244902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.998722050845146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1105342837704484</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$L$2:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4cores 16proc 2threads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$L$5:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.8506265526313377</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7603628344922755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9454998894815458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7982948392305116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7712821866198305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7728166288565248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7834008637487124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8016104306515495</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$M$2:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8cores 32proc 1thread</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$I$5:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'MPI&amp;OMPvsOMP'!$M$5:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.077433152797743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9629187811154671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7491343333915463</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5424368577050067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5874465794538868</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5733676815353099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5622083181354809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5911464350076245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230308608"/>
+        <c:axId val="230709440"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="230308608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Exp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230709440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230709440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="230308608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3191,6 +5120,113 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3488,7 +5524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E11"/>
     </sheetView>
   </sheetViews>
@@ -3505,94 +5541,94 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
       <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="66"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="43" t="s">
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="66"/>
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -3713,7 +5749,7 @@
       <c r="J4" s="9">
         <v>0.372807</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="60" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="32"/>
@@ -3828,7 +5864,7 @@
       <c r="J5" s="12">
         <v>0.43953399999999998</v>
       </c>
-      <c r="K5" s="49"/>
+      <c r="K5" s="61"/>
       <c r="L5" s="32"/>
       <c r="M5" s="4">
         <v>26</v>
@@ -3941,7 +5977,7 @@
       <c r="J6" s="12">
         <v>0.99928600000000001</v>
       </c>
-      <c r="K6" s="49"/>
+      <c r="K6" s="61"/>
       <c r="L6" s="32"/>
       <c r="M6" s="4">
         <v>27</v>
@@ -4054,7 +6090,7 @@
       <c r="J7" s="12">
         <v>2.0243199999999999</v>
       </c>
-      <c r="K7" s="49"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="32"/>
       <c r="M7" s="4">
         <v>28</v>
@@ -4167,7 +6203,7 @@
       <c r="J8" s="12">
         <v>4.0821899999999998</v>
       </c>
-      <c r="K8" s="49"/>
+      <c r="K8" s="61"/>
       <c r="L8" s="32"/>
       <c r="M8" s="4">
         <v>29</v>
@@ -4280,7 +6316,7 @@
       <c r="J9" s="12">
         <v>8.4418699999999998</v>
       </c>
-      <c r="K9" s="49"/>
+      <c r="K9" s="61"/>
       <c r="L9" s="32"/>
       <c r="M9" s="4">
         <v>30</v>
@@ -4393,7 +6429,7 @@
       <c r="J10" s="12">
         <v>17.3062</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="32"/>
       <c r="M10" s="4">
         <v>31</v>
@@ -4506,7 +6542,7 @@
       <c r="J11" s="16">
         <v>35.768999999999998</v>
       </c>
-      <c r="K11" s="50"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="32"/>
       <c r="M11" s="4">
         <v>32</v>
@@ -4589,16 +6625,16 @@
       <c r="AJ11" s="40"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z13" s="56" t="s">
+      <c r="Z13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="57"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y14" s="2" t="s">
@@ -4631,77 +6667,77 @@
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y15" s="40">
-        <f>SUM(Y4:Y11)/8</f>
+        <f t="shared" ref="Y15:AG15" si="13">SUM(Y4:Y11)/8</f>
         <v>112494969.10218281</v>
       </c>
       <c r="Z15" s="40">
-        <f>SUM(Z4:Z11)/8</f>
+        <f t="shared" si="13"/>
         <v>113273621.90486951</v>
       </c>
       <c r="AA15" s="40">
-        <f>SUM(AA4:AA11)/8</f>
+        <f t="shared" si="13"/>
         <v>138432910.79347843</v>
       </c>
       <c r="AB15" s="40">
-        <f>SUM(AB4:AB11)/8</f>
+        <f t="shared" si="13"/>
         <v>144467549.70559773</v>
       </c>
       <c r="AC15" s="40">
-        <f>SUM(AC4:AC11)/8</f>
+        <f t="shared" si="13"/>
         <v>146294707.42594656</v>
       </c>
       <c r="AD15" s="40">
-        <f>SUM(AD4:AD11)/8</f>
+        <f t="shared" si="13"/>
         <v>136458907.72512588</v>
       </c>
       <c r="AE15" s="40">
-        <f>SUM(AE4:AE11)/8</f>
+        <f t="shared" si="13"/>
         <v>139195030.59377518</v>
       </c>
       <c r="AF15" s="40">
-        <f>SUM(AF4:AF11)/8</f>
+        <f t="shared" si="13"/>
         <v>136780417.09230149</v>
       </c>
       <c r="AG15" s="40">
-        <f>SUM(AG4:AG11)/8</f>
+        <f t="shared" si="13"/>
         <v>126559506.17843254</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y16" s="19">
-        <f>Y15/$Y15</f>
+        <f t="shared" ref="Y16:AG16" si="14">Y15/$Y15</f>
         <v>1</v>
       </c>
       <c r="Z16" s="19">
-        <f>Z15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.0069216677768</v>
       </c>
       <c r="AA16" s="19">
-        <f>AA15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.2305697925721049</v>
       </c>
       <c r="AB16" s="19">
-        <f>AB15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.284213426241072</v>
       </c>
       <c r="AC16" s="19">
-        <f>AC15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.300455554532953</v>
       </c>
       <c r="AD16" s="19">
-        <f>AD15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.2130223139238863</v>
       </c>
       <c r="AE16" s="19">
-        <f>AE15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.2373444937554483</v>
       </c>
       <c r="AF16" s="19">
-        <f>AF15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.2158803027721126</v>
       </c>
       <c r="AG16" s="19">
-        <f>AG15/$Y15</f>
+        <f t="shared" si="14"/>
         <v>1.1250236982906716</v>
       </c>
     </row>
@@ -4728,7 +6764,7 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:U17"/>
+      <selection activeCell="D1" sqref="D1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,77 +6781,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46"/>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="57" t="s">
+      <c r="Q2" s="58"/>
+      <c r="R2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4823,43 +6859,43 @@
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="U3" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4870,22 +6906,22 @@
       <c r="B4" s="5">
         <v>0.292435</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="45">
         <v>3.8092899999999999E-2</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="44">
         <v>4.2406100000000002E-2</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="44">
         <v>5.9418899999999997E-2</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="46">
         <v>7.3562100000000005E-2</v>
       </c>
       <c r="I4" s="4">
         <v>25</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="55">
         <f>$B4/D4</f>
         <v>7.6768899191187865</v>
       </c>
@@ -4920,7 +6956,7 @@
         <v>791264275.65845478</v>
       </c>
       <c r="T4" s="40">
-        <f t="shared" ref="S4:U4" si="1">$O4/F4</f>
+        <f t="shared" ref="T4:U4" si="1">$O4/F4</f>
         <v>564709747.23530734</v>
       </c>
       <c r="U4" s="40">
@@ -4935,22 +6971,22 @@
       <c r="B5" s="10">
         <v>0.50765099999999996</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.158497</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="44">
         <v>0.17446700000000001</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="44">
         <v>0.17577200000000001</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="46">
         <v>0.17968899999999999</v>
       </c>
       <c r="I5" s="4">
         <v>26</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="55">
         <f t="shared" ref="J5:J11" si="2">$B5/D5</f>
         <v>3.2029060486949277</v>
       </c>
@@ -5000,22 +7036,22 @@
       <c r="B6" s="10">
         <v>1.1070500000000001</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="45">
         <v>0.41505700000000001</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="44">
         <v>0.41058</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="44">
         <v>0.46311099999999999</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="46">
         <v>0.50579399999999997</v>
       </c>
       <c r="I6" s="4">
         <v>27</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="55">
         <f t="shared" si="2"/>
         <v>2.6672240198334207</v>
       </c>
@@ -5038,7 +7074,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="40">
-        <f t="shared" ref="Q5:Q11" si="10">O6/B6</f>
+        <f t="shared" ref="Q6:Q11" si="10">O6/B6</f>
         <v>121239084.05221082</v>
       </c>
       <c r="R6" s="40">
@@ -5065,22 +7101,22 @@
       <c r="B7" s="10">
         <v>2.3196400000000001</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="45">
         <v>0.92916500000000002</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="44">
         <v>0.91961899999999996</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="44">
         <v>1.0476399999999999</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="46">
         <v>1.16812</v>
       </c>
       <c r="I7" s="4">
         <v>28</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="55">
         <f t="shared" si="2"/>
         <v>2.4964780205883779</v>
       </c>
@@ -5130,22 +7166,22 @@
       <c r="B8" s="10">
         <v>4.8814500000000001</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="45">
         <v>1.98807</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="44">
         <v>2.1307700000000001</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="44">
         <v>2.27494</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="46">
         <v>2.5029699999999999</v>
       </c>
       <c r="I8" s="4">
         <v>29</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="55">
         <f t="shared" si="2"/>
         <v>2.4553712897433191</v>
       </c>
@@ -5195,22 +7231,22 @@
       <c r="B9" s="10">
         <v>10.1624</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="45">
         <v>4.17164</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="44">
         <v>3.9708299999999999</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="44">
         <v>4.6124900000000002</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="46">
         <v>5.2347900000000003</v>
       </c>
       <c r="I9" s="4">
         <v>30</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="55">
         <f t="shared" si="2"/>
         <v>2.4360683088665369</v>
       </c>
@@ -5260,22 +7296,22 @@
       <c r="B10" s="10">
         <v>21.160299999999999</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="45">
         <v>8.6031099999999991</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="44">
         <v>8.2714400000000001</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="44">
         <v>9.6100300000000001</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="46">
         <v>10.588800000000001</v>
       </c>
       <c r="I10" s="4">
         <v>31</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="55">
         <f t="shared" si="2"/>
         <v>2.4596105361898197</v>
       </c>
@@ -5325,7 +7361,7 @@
       <c r="B11" s="14">
         <v>43.412100000000002</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>17.634</v>
       </c>
       <c r="E11" s="18">
@@ -5334,13 +7370,13 @@
       <c r="F11" s="18">
         <v>19.139600000000002</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="48">
         <v>21.650700000000001</v>
       </c>
       <c r="I11" s="4">
         <v>32</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="56">
         <f t="shared" si="2"/>
         <v>2.4618407621640013</v>
       </c>
@@ -5384,28 +7420,28 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="46"/>
-      <c r="R14" s="57">
+      <c r="Q14" s="58"/>
+      <c r="R14" s="49">
         <v>4</v>
       </c>
-      <c r="S14" s="58">
+      <c r="S14" s="50">
         <v>8</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="50">
         <v>16</v>
       </c>
-      <c r="U14" s="59">
+      <c r="U14" s="51">
         <v>32</v>
       </c>
     </row>
@@ -5413,16 +7449,16 @@
       <c r="Q15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="61" t="s">
+      <c r="S15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="T15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="62" t="s">
+      <c r="U15" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5472,13 +7508,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="Q13:Q14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5489,8 +7525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5507,77 +7543,77 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="56" t="s">
+      <c r="R1" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46"/>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="58"/>
+      <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="58" t="s">
+      <c r="L2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="57" t="s">
+      <c r="Q2" s="58"/>
+      <c r="R2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="58" t="s">
+      <c r="T2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="51" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5585,43 +7621,43 @@
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="62" t="s">
+      <c r="M3" s="54" t="s">
         <v>10</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="61" t="s">
+      <c r="T3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="U3" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5632,22 +7668,22 @@
       <c r="B4" s="7">
         <v>0.20188300000000001</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="45">
         <v>3.8092899999999999E-2</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="44">
         <v>4.2406100000000002E-2</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="44">
         <v>5.9418899999999997E-2</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="46">
         <v>7.3562100000000005E-2</v>
       </c>
       <c r="I4" s="4">
         <v>25</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="55">
         <f>$B4/D4</f>
         <v>5.2997540224031257</v>
       </c>
@@ -5697,22 +7733,22 @@
       <c r="B5" s="12">
         <v>0.40808100000000003</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="45">
         <v>0.158497</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="44">
         <v>0.17446700000000001</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="44">
         <v>0.17577200000000001</v>
       </c>
-      <c r="G5" s="53">
+      <c r="G5" s="46">
         <v>0.17968899999999999</v>
       </c>
       <c r="I5" s="4">
         <v>26</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="55">
         <f t="shared" ref="J5:J11" si="2">$B5/D5</f>
         <v>2.5746922654687472</v>
       </c>
@@ -5762,22 +7798,22 @@
       <c r="B6" s="13">
         <v>0.87136800000000003</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="45">
         <v>0.41505700000000001</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="44">
         <v>0.41058</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="44">
         <v>0.46311099999999999</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="46">
         <v>0.50579399999999997</v>
       </c>
       <c r="I6" s="4">
         <v>27</v>
       </c>
-      <c r="J6" s="63">
+      <c r="J6" s="55">
         <f t="shared" si="2"/>
         <v>2.0993935772677008</v>
       </c>
@@ -5800,7 +7836,7 @@
         <v>27</v>
       </c>
       <c r="Q6" s="40">
-        <f t="shared" ref="Q6:Q12" si="4">O6/B6</f>
+        <f t="shared" ref="Q6:Q11" si="4">O6/B6</f>
         <v>154031050.02708384</v>
       </c>
       <c r="R6" s="40">
@@ -5827,22 +7863,22 @@
       <c r="B7" s="13">
         <v>1.8266</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="45">
         <v>0.92916500000000002</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="44">
         <v>0.91961899999999996</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="44">
         <v>1.0476399999999999</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="46">
         <v>1.16812</v>
       </c>
       <c r="I7" s="4">
         <v>28</v>
       </c>
-      <c r="J7" s="63">
+      <c r="J7" s="55">
         <f t="shared" si="2"/>
         <v>1.9658510598225287</v>
       </c>
@@ -5892,22 +7928,22 @@
       <c r="B8" s="13">
         <v>3.8927999999999998</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="45">
         <v>1.98807</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="44">
         <v>2.1307700000000001</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="44">
         <v>2.27494</v>
       </c>
-      <c r="G8" s="53">
+      <c r="G8" s="46">
         <v>2.5029699999999999</v>
       </c>
       <c r="I8" s="4">
         <v>29</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="55">
         <f t="shared" si="2"/>
         <v>1.958079946883158</v>
       </c>
@@ -5957,22 +7993,22 @@
       <c r="B9" s="12">
         <v>8.0802499999999995</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="45">
         <v>4.17164</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="44">
         <v>3.9708299999999999</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="44">
         <v>4.6124900000000002</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="46">
         <v>5.2347900000000003</v>
       </c>
       <c r="I9" s="4">
         <v>30</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J9" s="55">
         <f t="shared" si="2"/>
         <v>1.9369480587970198</v>
       </c>
@@ -6022,22 +8058,22 @@
       <c r="B10" s="13">
         <v>16.703600000000002</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="45">
         <v>8.6031099999999991</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="44">
         <v>8.2714400000000001</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="44">
         <v>9.6100300000000001</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="46">
         <v>10.588800000000001</v>
       </c>
       <c r="I10" s="4">
         <v>31</v>
       </c>
-      <c r="J10" s="63">
+      <c r="J10" s="55">
         <f t="shared" si="2"/>
         <v>1.9415769413619033</v>
       </c>
@@ -6087,7 +8123,7 @@
       <c r="B11" s="17">
         <v>34.433999999999997</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="47">
         <v>17.634</v>
       </c>
       <c r="E11" s="18">
@@ -6096,13 +8132,13 @@
       <c r="F11" s="18">
         <v>19.139600000000002</v>
       </c>
-      <c r="G11" s="55">
+      <c r="G11" s="48">
         <v>21.650700000000001</v>
       </c>
       <c r="I11" s="4">
         <v>32</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="56">
         <f t="shared" si="2"/>
         <v>1.9527050017012588</v>
       </c>
@@ -6146,28 +8182,28 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="46" t="s">
+      <c r="Q13" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="56" t="s">
+      <c r="R13" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="46"/>
-      <c r="R14" s="57">
+      <c r="Q14" s="58"/>
+      <c r="R14" s="49">
         <v>4</v>
       </c>
-      <c r="S14" s="58">
+      <c r="S14" s="50">
         <v>8</v>
       </c>
-      <c r="T14" s="58">
+      <c r="T14" s="50">
         <v>16</v>
       </c>
-      <c r="U14" s="59">
+      <c r="U14" s="51">
         <v>32</v>
       </c>
     </row>
@@ -6175,16 +8211,16 @@
       <c r="Q15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="61" t="s">
+      <c r="S15" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="61" t="s">
+      <c r="T15" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="U15" s="62" t="s">
+      <c r="U15" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6234,13 +8270,1756 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R13:U13"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:U13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="J1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
+        <v>2</v>
+      </c>
+      <c r="E2" s="53">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54">
+        <v>8</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="20">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21">
+        <v>16</v>
+      </c>
+      <c r="F3" s="22">
+        <v>32</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="72">
+        <v>3</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2</v>
+      </c>
+      <c r="E4" s="74">
+        <v>2</v>
+      </c>
+      <c r="F4" s="75">
+        <v>1</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.292435</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.6050100000000002E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.36659E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.10908900000000001</v>
+      </c>
+      <c r="F5" s="67">
+        <v>6.5601099999999996E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>25</v>
+      </c>
+      <c r="J5" s="19">
+        <f>$B5/C5</f>
+        <v>8.1119053761293305</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:M5" si="0">$B5/D5</f>
+        <v>12.356808741691632</v>
+      </c>
+      <c r="L5" s="19">
+        <f t="shared" si="0"/>
+        <v>2.6807010789355479</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.4577758604657545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.50765099999999996</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.13627700000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.203681</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.147836</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.207895</v>
+      </c>
+      <c r="I6" s="4">
+        <v>26</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" ref="J6:J12" si="1">$B6/C6</f>
+        <v>3.7251407060619175</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" ref="K6:K12" si="2">$B6/D6</f>
+        <v>2.4923826964714428</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" ref="L6:L12" si="3">$B6/E6</f>
+        <v>3.4338794339673693</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M12" si="4">$B6/F6</f>
+        <v>2.4418624786550902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.1070500000000001</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.32850400000000002</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.38825999999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.44788899999999998</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.49817099999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>27</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>3.3699741860068677</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="2"/>
+        <v>2.8513109771802405</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="3"/>
+        <v>2.4717061593385865</v>
+      </c>
+      <c r="M7" s="19">
+        <f>$B7/F7</f>
+        <v>2.2222289133650897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.3196400000000001</v>
+      </c>
+      <c r="C8" s="70">
+        <v>0.74790800000000002</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.87609700000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.0157400000000001</v>
+      </c>
+      <c r="F8" s="68">
+        <v>1.1842299999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>28</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1015044631157842</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6476976864433963</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2836946462677457</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="4"/>
+        <v>1.9587749001460868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.8814500000000001</v>
+      </c>
+      <c r="C9" s="70">
+        <v>1.5672699999999999</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.96105</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.19773</v>
+      </c>
+      <c r="F9" s="68">
+        <v>2.4522400000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>29</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1146196890133799</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4892022131001252</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="3"/>
+        <v>2.221132714209662</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="4"/>
+        <v>1.990608586435259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10.1624</v>
+      </c>
+      <c r="C10" s="70">
+        <v>3.2447300000000001</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3.8245100000000001</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.5578599999999998</v>
+      </c>
+      <c r="F10" s="68">
+        <v>5.1356400000000004</v>
+      </c>
+      <c r="I10" s="4">
+        <v>30</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1319709189978826</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6571769978376314</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2296428587100086</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="4"/>
+        <v>1.9787991370111611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
+        <v>21.160299999999999</v>
+      </c>
+      <c r="C11" s="70">
+        <v>6.6621899999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>8.3571399999999993</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9.3661499999999993</v>
+      </c>
+      <c r="F11" s="68">
+        <v>10.692299999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>31</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1761778033949799</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="2"/>
+        <v>2.5320025750436157</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2592313810904163</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="4"/>
+        <v>1.9790222870663936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43.412100000000002</v>
+      </c>
+      <c r="C12" s="71">
+        <v>13.6403</v>
+      </c>
+      <c r="D12" s="16">
+        <v>16.315300000000001</v>
+      </c>
+      <c r="E12" s="16">
+        <v>19.1129</v>
+      </c>
+      <c r="F12" s="69">
+        <v>21.640999999999998</v>
+      </c>
+      <c r="I12" s="4">
+        <v>32</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="1"/>
+        <v>3.1826352792827137</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6608214375463524</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2713507630971752</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.0060117369807311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="J1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1</v>
+      </c>
+      <c r="D2" s="53">
+        <v>2</v>
+      </c>
+      <c r="E2" s="53">
+        <v>4</v>
+      </c>
+      <c r="F2" s="54">
+        <v>8</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="20">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <v>8</v>
+      </c>
+      <c r="E3" s="21">
+        <v>16</v>
+      </c>
+      <c r="F3" s="22">
+        <v>32</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="72">
+        <v>3</v>
+      </c>
+      <c r="D4" s="73">
+        <v>2</v>
+      </c>
+      <c r="E4" s="74">
+        <v>2</v>
+      </c>
+      <c r="F4" s="75">
+        <v>1</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>25</v>
+      </c>
+      <c r="B5" s="80">
+        <v>0.20188300000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.6050100000000002E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2.36659E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.10908900000000001</v>
+      </c>
+      <c r="F5" s="67">
+        <v>6.5601099999999996E-2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>25</v>
+      </c>
+      <c r="J5" s="19">
+        <f>$B5/C5</f>
+        <v>5.6000676835847889</v>
+      </c>
+      <c r="K5" s="19">
+        <f t="shared" ref="K5:M12" si="0">$B5/D5</f>
+        <v>8.5305439471982893</v>
+      </c>
+      <c r="L5" s="19">
+        <f t="shared" si="0"/>
+        <v>1.8506265526313377</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.077433152797743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>26</v>
+      </c>
+      <c r="B6" s="44">
+        <v>0.40808100000000003</v>
+      </c>
+      <c r="C6" s="70">
+        <v>0.13627700000000001</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.203681</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.147836</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0.207895</v>
+      </c>
+      <c r="I6" s="4">
+        <v>26</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" ref="J6:J12" si="1">$B6/C6</f>
+        <v>2.9944965034451889</v>
+      </c>
+      <c r="K6" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0035300298015035</v>
+      </c>
+      <c r="L6" s="19">
+        <f t="shared" si="0"/>
+        <v>2.7603628344922755</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" si="0"/>
+        <v>1.9629187811154671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>27</v>
+      </c>
+      <c r="B7" s="44">
+        <v>0.87136800000000003</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0.32850400000000002</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.38825999999999999</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.44788899999999998</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0.49817099999999997</v>
+      </c>
+      <c r="I7" s="4">
+        <v>27</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6525339113070161</v>
+      </c>
+      <c r="K7" s="19">
+        <f t="shared" si="0"/>
+        <v>2.2442899088239838</v>
+      </c>
+      <c r="L7" s="19">
+        <f t="shared" si="0"/>
+        <v>1.9454998894815458</v>
+      </c>
+      <c r="M7" s="19">
+        <f>$B7/F7</f>
+        <v>1.7491343333915463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>28</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1.8266</v>
+      </c>
+      <c r="C8" s="70">
+        <v>0.74790800000000002</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.87609700000000001</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.0157400000000001</v>
+      </c>
+      <c r="F8" s="68">
+        <v>1.1842299999999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>28</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4422789968819694</v>
+      </c>
+      <c r="K8" s="19">
+        <f t="shared" si="0"/>
+        <v>2.0849289519311216</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7982948392305116</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5424368577050067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" s="44">
+        <v>3.8927999999999998</v>
+      </c>
+      <c r="C9" s="70">
+        <v>1.5672699999999999</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1.96105</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.19773</v>
+      </c>
+      <c r="F9" s="68">
+        <v>2.4522400000000002</v>
+      </c>
+      <c r="I9" s="4">
+        <v>29</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4838094265825288</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.98505902450218</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7712821866198305</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5874465794538868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="44">
+        <v>8.0802499999999995</v>
+      </c>
+      <c r="C10" s="70">
+        <v>3.2447300000000001</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3.8245100000000001</v>
+      </c>
+      <c r="E10" s="12">
+        <v>4.5578599999999998</v>
+      </c>
+      <c r="F10" s="68">
+        <v>5.1356400000000004</v>
+      </c>
+      <c r="I10" s="4">
+        <v>30</v>
+      </c>
+      <c r="J10" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4902688359277967</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="0"/>
+        <v>2.1127543136244902</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7728166288565248</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5733676815353099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>31</v>
+      </c>
+      <c r="B11" s="44">
+        <v>16.703600000000002</v>
+      </c>
+      <c r="C11" s="70">
+        <v>6.6621899999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>8.3571399999999993</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9.3661499999999993</v>
+      </c>
+      <c r="F11" s="68">
+        <v>10.692299999999999</v>
+      </c>
+      <c r="I11" s="4">
+        <v>31</v>
+      </c>
+      <c r="J11" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5072236006478352</v>
+      </c>
+      <c r="K11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.998722050845146</v>
+      </c>
+      <c r="L11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.7834008637487124</v>
+      </c>
+      <c r="M11" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5622083181354809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>32</v>
+      </c>
+      <c r="B12" s="18">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="C12" s="71">
+        <v>13.6403</v>
+      </c>
+      <c r="D12" s="16">
+        <v>16.315300000000001</v>
+      </c>
+      <c r="E12" s="16">
+        <v>19.1129</v>
+      </c>
+      <c r="F12" s="69">
+        <v>21.640999999999998</v>
+      </c>
+      <c r="I12" s="4">
+        <v>32</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5244312808369318</v>
+      </c>
+      <c r="K12" s="19">
+        <f t="shared" si="0"/>
+        <v>2.1105342837704484</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" si="0"/>
+        <v>1.8016104306515495</v>
+      </c>
+      <c r="M12" s="19">
+        <f t="shared" si="0"/>
+        <v>1.5911464350076245</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H1" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="M1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="79"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="52">
+        <v>1</v>
+      </c>
+      <c r="I2" s="53">
+        <v>2</v>
+      </c>
+      <c r="J2" s="53">
+        <v>4</v>
+      </c>
+      <c r="K2" s="54">
+        <v>8</v>
+      </c>
+      <c r="N2" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="20">
+        <v>4</v>
+      </c>
+      <c r="I3" s="21">
+        <v>8</v>
+      </c>
+      <c r="J3" s="21">
+        <v>16</v>
+      </c>
+      <c r="K3" s="22">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="72">
+        <v>3</v>
+      </c>
+      <c r="I4" s="73">
+        <v>2</v>
+      </c>
+      <c r="J4" s="74">
+        <v>2</v>
+      </c>
+      <c r="K4" s="75">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.292435</v>
+      </c>
+      <c r="C5" s="80">
+        <v>0.20188300000000001</v>
+      </c>
+      <c r="D5" s="45">
+        <v>3.8092899999999999E-2</v>
+      </c>
+      <c r="E5" s="44">
+        <v>4.2406100000000002E-2</v>
+      </c>
+      <c r="F5" s="44">
+        <v>5.9418899999999997E-2</v>
+      </c>
+      <c r="G5" s="46">
+        <v>7.3562100000000005E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.6050100000000002E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.36659E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.10908900000000001</v>
+      </c>
+      <c r="K5" s="67">
+        <v>6.5601099999999996E-2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>25</v>
+      </c>
+      <c r="N5" s="19">
+        <f>$B5/C5</f>
+        <v>1.448537023919795</v>
+      </c>
+      <c r="O5" s="19">
+        <f>$B5/D5</f>
+        <v>7.6768899191187865</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" ref="P5:V5" si="0">$B5/E5</f>
+        <v>6.8960597649866404</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.9215821901785466</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="0"/>
+        <v>3.9753487189734931</v>
+      </c>
+      <c r="S5" s="19">
+        <f t="shared" si="0"/>
+        <v>8.1119053761293305</v>
+      </c>
+      <c r="T5" s="19">
+        <f t="shared" si="0"/>
+        <v>12.356808741691632</v>
+      </c>
+      <c r="U5" s="19">
+        <f t="shared" si="0"/>
+        <v>2.6807010789355479</v>
+      </c>
+      <c r="V5" s="19">
+        <f t="shared" si="0"/>
+        <v>4.4577758604657545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.50765099999999996</v>
+      </c>
+      <c r="C6" s="44">
+        <v>0.40808100000000003</v>
+      </c>
+      <c r="D6" s="45">
+        <v>0.158497</v>
+      </c>
+      <c r="E6" s="44">
+        <v>0.17446700000000001</v>
+      </c>
+      <c r="F6" s="44">
+        <v>0.17577200000000001</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0.17968899999999999</v>
+      </c>
+      <c r="H6" s="70">
+        <v>0.13627700000000001</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.203681</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.147836</v>
+      </c>
+      <c r="K6" s="68">
+        <v>0.207895</v>
+      </c>
+      <c r="M6" s="4">
+        <v>26</v>
+      </c>
+      <c r="N6" s="19">
+        <f t="shared" ref="N6:N12" si="1">$B6/C6</f>
+        <v>1.2439956773287655</v>
+      </c>
+      <c r="O6" s="19">
+        <f t="shared" ref="O6:O12" si="2">$B6/D6</f>
+        <v>3.2029060486949277</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" ref="P6:P12" si="3">$B6/E6</f>
+        <v>2.9097250482899342</v>
+      </c>
+      <c r="Q6" s="19">
+        <f t="shared" ref="Q6:Q12" si="4">$B6/F6</f>
+        <v>2.8881221127369541</v>
+      </c>
+      <c r="R6" s="19">
+        <f t="shared" ref="R6:R12" si="5">$B6/G6</f>
+        <v>2.8251645899303797</v>
+      </c>
+      <c r="S6" s="19">
+        <f t="shared" ref="S6:S12" si="6">$B6/H6</f>
+        <v>3.7251407060619175</v>
+      </c>
+      <c r="T6" s="19">
+        <f t="shared" ref="T6:T12" si="7">$B6/I6</f>
+        <v>2.4923826964714428</v>
+      </c>
+      <c r="U6" s="19">
+        <f t="shared" ref="U6:U12" si="8">$B6/J6</f>
+        <v>3.4338794339673693</v>
+      </c>
+      <c r="V6" s="19">
+        <f t="shared" ref="V6:V12" si="9">$B6/K6</f>
+        <v>2.4418624786550902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.1070500000000001</v>
+      </c>
+      <c r="C7" s="44">
+        <v>0.87136800000000003</v>
+      </c>
+      <c r="D7" s="45">
+        <v>0.41505700000000001</v>
+      </c>
+      <c r="E7" s="44">
+        <v>0.41058</v>
+      </c>
+      <c r="F7" s="44">
+        <v>0.46311099999999999</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0.50579399999999997</v>
+      </c>
+      <c r="H7" s="70">
+        <v>0.32850400000000002</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.38825999999999999</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.44788899999999998</v>
+      </c>
+      <c r="K7" s="68">
+        <v>0.49817099999999997</v>
+      </c>
+      <c r="M7" s="4">
+        <v>27</v>
+      </c>
+      <c r="N7" s="19">
+        <f t="shared" si="1"/>
+        <v>1.270473554227376</v>
+      </c>
+      <c r="O7" s="19">
+        <f t="shared" si="2"/>
+        <v>2.6672240198334207</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="3"/>
+        <v>2.6963076623313365</v>
+      </c>
+      <c r="Q7" s="19">
+        <f t="shared" si="4"/>
+        <v>2.390463625351158</v>
+      </c>
+      <c r="R7" s="19">
+        <f t="shared" si="5"/>
+        <v>2.1887369166103201</v>
+      </c>
+      <c r="S7" s="19">
+        <f t="shared" si="6"/>
+        <v>3.3699741860068677</v>
+      </c>
+      <c r="T7" s="19">
+        <f t="shared" si="7"/>
+        <v>2.8513109771802405</v>
+      </c>
+      <c r="U7" s="19">
+        <f t="shared" si="8"/>
+        <v>2.4717061593385865</v>
+      </c>
+      <c r="V7" s="19">
+        <f t="shared" si="9"/>
+        <v>2.2222289133650897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.3196400000000001</v>
+      </c>
+      <c r="C8" s="44">
+        <v>1.8266</v>
+      </c>
+      <c r="D8" s="45">
+        <v>0.92916500000000002</v>
+      </c>
+      <c r="E8" s="44">
+        <v>0.91961899999999996</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1.0476399999999999</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1.16812</v>
+      </c>
+      <c r="H8" s="70">
+        <v>0.74790800000000002</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.87609700000000001</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.0157400000000001</v>
+      </c>
+      <c r="K8" s="68">
+        <v>1.1842299999999999</v>
+      </c>
+      <c r="M8" s="4">
+        <v>28</v>
+      </c>
+      <c r="N8" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2699222599364941</v>
+      </c>
+      <c r="O8" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4964780205883779</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5223924255588459</v>
+      </c>
+      <c r="Q8" s="19">
+        <f t="shared" si="4"/>
+        <v>2.2141575350311178</v>
+      </c>
+      <c r="R8" s="19">
+        <f t="shared" si="5"/>
+        <v>1.9857891312536384</v>
+      </c>
+      <c r="S8" s="19">
+        <f t="shared" si="6"/>
+        <v>3.1015044631157842</v>
+      </c>
+      <c r="T8" s="19">
+        <f t="shared" si="7"/>
+        <v>2.6476976864433963</v>
+      </c>
+      <c r="U8" s="19">
+        <f t="shared" si="8"/>
+        <v>2.2836946462677457</v>
+      </c>
+      <c r="V8" s="19">
+        <f t="shared" si="9"/>
+        <v>1.9587749001460868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.8814500000000001</v>
+      </c>
+      <c r="C9" s="44">
+        <v>3.8927999999999998</v>
+      </c>
+      <c r="D9" s="45">
+        <v>1.98807</v>
+      </c>
+      <c r="E9" s="44">
+        <v>2.1307700000000001</v>
+      </c>
+      <c r="F9" s="44">
+        <v>2.27494</v>
+      </c>
+      <c r="G9" s="46">
+        <v>2.5029699999999999</v>
+      </c>
+      <c r="H9" s="70">
+        <v>1.5672699999999999</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.96105</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.19773</v>
+      </c>
+      <c r="K9" s="68">
+        <v>2.4522400000000002</v>
+      </c>
+      <c r="M9" s="4">
+        <v>29</v>
+      </c>
+      <c r="N9" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2539688655980272</v>
+      </c>
+      <c r="O9" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4553712897433191</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="3"/>
+        <v>2.2909323859449868</v>
+      </c>
+      <c r="Q9" s="19">
+        <f t="shared" si="4"/>
+        <v>2.1457488988720583</v>
+      </c>
+      <c r="R9" s="19">
+        <f t="shared" si="5"/>
+        <v>1.950263087452107</v>
+      </c>
+      <c r="S9" s="19">
+        <f t="shared" si="6"/>
+        <v>3.1146196890133799</v>
+      </c>
+      <c r="T9" s="19">
+        <f t="shared" si="7"/>
+        <v>2.4892022131001252</v>
+      </c>
+      <c r="U9" s="19">
+        <f t="shared" si="8"/>
+        <v>2.221132714209662</v>
+      </c>
+      <c r="V9" s="19">
+        <f t="shared" si="9"/>
+        <v>1.990608586435259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10">
+        <v>10.1624</v>
+      </c>
+      <c r="C10" s="44">
+        <v>8.0802499999999995</v>
+      </c>
+      <c r="D10" s="45">
+        <v>4.17164</v>
+      </c>
+      <c r="E10" s="44">
+        <v>3.9708299999999999</v>
+      </c>
+      <c r="F10" s="44">
+        <v>4.6124900000000002</v>
+      </c>
+      <c r="G10" s="46">
+        <v>5.2347900000000003</v>
+      </c>
+      <c r="H10" s="70">
+        <v>3.2447300000000001</v>
+      </c>
+      <c r="I10" s="12">
+        <v>3.8245100000000001</v>
+      </c>
+      <c r="J10" s="12">
+        <v>4.5578599999999998</v>
+      </c>
+      <c r="K10" s="68">
+        <v>5.1356400000000004</v>
+      </c>
+      <c r="M10" s="4">
+        <v>30</v>
+      </c>
+      <c r="N10" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2576838587914978</v>
+      </c>
+      <c r="O10" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4360683088665369</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5592634285527209</v>
+      </c>
+      <c r="Q10" s="19">
+        <f t="shared" si="4"/>
+        <v>2.2032351289650491</v>
+      </c>
+      <c r="R10" s="19">
+        <f t="shared" si="5"/>
+        <v>1.9413195180704479</v>
+      </c>
+      <c r="S10" s="19">
+        <f t="shared" si="6"/>
+        <v>3.1319709189978826</v>
+      </c>
+      <c r="T10" s="19">
+        <f t="shared" si="7"/>
+        <v>2.6571769978376314</v>
+      </c>
+      <c r="U10" s="19">
+        <f t="shared" si="8"/>
+        <v>2.2296428587100086</v>
+      </c>
+      <c r="V10" s="19">
+        <f t="shared" si="9"/>
+        <v>1.9787991370111611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10">
+        <v>21.160299999999999</v>
+      </c>
+      <c r="C11" s="44">
+        <v>16.703600000000002</v>
+      </c>
+      <c r="D11" s="45">
+        <v>8.6031099999999991</v>
+      </c>
+      <c r="E11" s="44">
+        <v>8.2714400000000001</v>
+      </c>
+      <c r="F11" s="44">
+        <v>9.6100300000000001</v>
+      </c>
+      <c r="G11" s="46">
+        <v>10.588800000000001</v>
+      </c>
+      <c r="H11" s="70">
+        <v>6.6621899999999998</v>
+      </c>
+      <c r="I11" s="12">
+        <v>8.3571399999999993</v>
+      </c>
+      <c r="J11" s="12">
+        <v>9.3661499999999993</v>
+      </c>
+      <c r="K11" s="68">
+        <v>10.692299999999999</v>
+      </c>
+      <c r="M11" s="4">
+        <v>31</v>
+      </c>
+      <c r="N11" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2668107473837973</v>
+      </c>
+      <c r="O11" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4596105361898197</v>
+      </c>
+      <c r="P11" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5582365343882079</v>
+      </c>
+      <c r="Q11" s="19">
+        <f t="shared" si="4"/>
+        <v>2.2018973926200021</v>
+      </c>
+      <c r="R11" s="19">
+        <f t="shared" si="5"/>
+        <v>1.9983661982472043</v>
+      </c>
+      <c r="S11" s="19">
+        <f t="shared" si="6"/>
+        <v>3.1761778033949799</v>
+      </c>
+      <c r="T11" s="19">
+        <f t="shared" si="7"/>
+        <v>2.5320025750436157</v>
+      </c>
+      <c r="U11" s="19">
+        <f t="shared" si="8"/>
+        <v>2.2592313810904163</v>
+      </c>
+      <c r="V11" s="19">
+        <f t="shared" si="9"/>
+        <v>1.9790222870663936</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>32</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43.412100000000002</v>
+      </c>
+      <c r="C12" s="18">
+        <v>34.433999999999997</v>
+      </c>
+      <c r="D12" s="47">
+        <v>17.634</v>
+      </c>
+      <c r="E12" s="18">
+        <v>17.037400000000002</v>
+      </c>
+      <c r="F12" s="18">
+        <v>19.139600000000002</v>
+      </c>
+      <c r="G12" s="48">
+        <v>21.650700000000001</v>
+      </c>
+      <c r="H12" s="71">
+        <v>13.6403</v>
+      </c>
+      <c r="I12" s="16">
+        <v>16.315300000000001</v>
+      </c>
+      <c r="J12" s="16">
+        <v>19.1129</v>
+      </c>
+      <c r="K12" s="69">
+        <v>21.640999999999998</v>
+      </c>
+      <c r="M12" s="4">
+        <v>32</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2607335772782717</v>
+      </c>
+      <c r="O12" s="19">
+        <f t="shared" si="2"/>
+        <v>2.4618407621640013</v>
+      </c>
+      <c r="P12" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5480472372545107</v>
+      </c>
+      <c r="Q12" s="19">
+        <f t="shared" si="4"/>
+        <v>2.2681821981650607</v>
+      </c>
+      <c r="R12" s="19">
+        <f t="shared" si="5"/>
+        <v>2.0051129986559326</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" si="6"/>
+        <v>3.1826352792827137</v>
+      </c>
+      <c r="T12" s="19">
+        <f t="shared" si="7"/>
+        <v>2.6608214375463524</v>
+      </c>
+      <c r="U12" s="19">
+        <f t="shared" si="8"/>
+        <v>2.2713507630971752</v>
+      </c>
+      <c r="V12" s="19">
+        <f t="shared" si="9"/>
+        <v>2.0060117369807311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/project-2/results/spreadsheet/SpeedUps.xlsx
+++ b/project-2/results/spreadsheet/SpeedUps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="OMP" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,17 @@
     <sheet name="MPI&amp;OMPvsSEQ" sheetId="5" r:id="rId4"/>
     <sheet name="MPI&amp;OMPvsOMP" sheetId="8" r:id="rId5"/>
     <sheet name="All" sheetId="9" r:id="rId6"/>
+    <sheet name="OPS" sheetId="10" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="31">
   <si>
     <t>exp</t>
   </si>
@@ -109,6 +113,9 @@
   </si>
   <si>
     <t>MPI &amp; OMP</t>
+  </si>
+  <si>
+    <t>MOPS</t>
   </si>
 </sst>
 </file>
@@ -408,6 +415,27 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -438,26 +466,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,7 +475,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,11 +1205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66246848"/>
-        <c:axId val="66247424"/>
+        <c:axId val="74347584"/>
+        <c:axId val="74348160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66246848"/>
+        <c:axId val="74347584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1215,13 +1222,37 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1232,12 +1263,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66247424"/>
+        <c:crossAx val="74348160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66247424"/>
+        <c:axId val="74348160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.7000000000000002"/>
@@ -1269,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66246848"/>
+        <c:crossAx val="74347584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2091,11 +2122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234165312"/>
-        <c:axId val="234164736"/>
+        <c:axId val="227929472"/>
+        <c:axId val="227930048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234165312"/>
+        <c:axId val="227929472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2109,13 +2140,39 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2126,12 +2183,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234164736"/>
+        <c:crossAx val="227930048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234164736"/>
+        <c:axId val="227930048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -2163,7 +2220,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234165312"/>
+        <c:crossAx val="227929472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2173,6 +2230,218 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Sequencial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> version performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>OPS!$E$4:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>OPS!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>114.74150494981791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.19488191690749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.23908405221083</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.72289493197219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>109.98185211361378</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.65829174210816</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.48644622240705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.934796888425112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="214792384"/>
+        <c:axId val="214792960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="214792384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>N (2^Exp)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214792960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="214792960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="135"/>
+          <c:min val="95"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>MOP/s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="214792384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2303,11 +2572,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213058688"/>
-        <c:axId val="213059264"/>
+        <c:axId val="213172224"/>
+        <c:axId val="213172800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213058688"/>
+        <c:axId val="213172224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -2338,13 +2607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213059264"/>
+        <c:crossAx val="213172800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213059264"/>
+        <c:axId val="213172800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000000"/>
@@ -2376,7 +2645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213058688"/>
+        <c:crossAx val="213172224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2515,11 +2784,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213061568"/>
-        <c:axId val="213062144"/>
+        <c:axId val="213175104"/>
+        <c:axId val="213175680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213061568"/>
+        <c:axId val="213175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -2549,12 +2818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213062144"/>
+        <c:crossAx val="213175680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213062144"/>
+        <c:axId val="213175680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2584,7 +2853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213061568"/>
+        <c:crossAx val="213175104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2981,11 +3250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213063872"/>
-        <c:axId val="213064448"/>
+        <c:axId val="213177984"/>
+        <c:axId val="213178560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213063872"/>
+        <c:axId val="213177984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -2999,13 +3268,39 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3016,12 +3311,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213064448"/>
+        <c:crossAx val="213178560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213064448"/>
+        <c:axId val="213178560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8"/>
@@ -3030,11 +3325,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213063872"/>
+        <c:crossAx val="213177984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3155,11 +3469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211952768"/>
-        <c:axId val="211953344"/>
+        <c:axId val="215122496"/>
+        <c:axId val="215123072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211952768"/>
+        <c:axId val="215122496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -3190,13 +3504,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211953344"/>
+        <c:crossAx val="215123072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211953344"/>
+        <c:axId val="215123072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.3"/>
@@ -3228,7 +3542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211952768"/>
+        <c:crossAx val="215122496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3625,11 +3939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211955072"/>
-        <c:axId val="211955648"/>
+        <c:axId val="215124800"/>
+        <c:axId val="215125952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211955072"/>
+        <c:axId val="215124800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -3643,13 +3957,39 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3660,12 +4000,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211955648"/>
+        <c:crossAx val="215125952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211955648"/>
+        <c:axId val="215125952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.5"/>
@@ -3697,7 +4037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211955072"/>
+        <c:crossAx val="215124800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3818,11 +4158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="211957952"/>
-        <c:axId val="211958528"/>
+        <c:axId val="227902592"/>
+        <c:axId val="227903168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="211957952"/>
+        <c:axId val="227902592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -3853,13 +4193,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211958528"/>
+        <c:crossAx val="227903168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="4"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="211958528"/>
+        <c:axId val="227903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.6"/>
@@ -3891,7 +4231,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211957952"/>
+        <c:crossAx val="227902592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4288,11 +4628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230305152"/>
-        <c:axId val="230304576"/>
+        <c:axId val="227904896"/>
+        <c:axId val="227905472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230305152"/>
+        <c:axId val="227904896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -4306,13 +4646,39 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="pt-PT" sz="1400"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4323,13 +4689,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230304576"/>
+        <c:crossAx val="227905472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230304576"/>
+        <c:axId val="227905472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14"/>
@@ -4361,7 +4727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230305152"/>
+        <c:crossAx val="227904896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4763,11 +5129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230308608"/>
-        <c:axId val="230709440"/>
+        <c:axId val="227907776"/>
+        <c:axId val="227908352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230308608"/>
+        <c:axId val="227907776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="32"/>
@@ -4781,13 +5147,39 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Exp</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>N (2^Exp)</a:t>
                 </a:r>
+                <a:endParaRPr lang="pt-PT" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4798,13 +5190,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230709440"/>
+        <c:crossAx val="227908352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230709440"/>
+        <c:axId val="227908352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -4836,7 +5228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230308608"/>
+        <c:crossAx val="227907776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4999,15 +5391,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:colOff>200023</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5028,16 +5420,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5133,13 +5525,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -5206,14 +5598,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>352424</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5233,6 +5625,133 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="OMP"/>
+      <sheetName val="MPIvsSEQ"/>
+      <sheetName val="MPIvsOMP"/>
+      <sheetName val="MPI&amp;OMPvsSEQ"/>
+      <sheetName val="MPI&amp;OMPvsOMP"/>
+      <sheetName val="All"/>
+      <sheetName val="OPS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6">
+        <row r="4">
+          <cell r="E4">
+            <v>25</v>
+          </cell>
+          <cell r="F4">
+            <v>114.74150494981791</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>26</v>
+          </cell>
+          <cell r="F5">
+            <v>132.19488191690749</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>27</v>
+          </cell>
+          <cell r="F6">
+            <v>121.23908405221083</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>28</v>
+          </cell>
+          <cell r="F7">
+            <v>115.72289493197219</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>29</v>
+          </cell>
+          <cell r="F8">
+            <v>109.98185211361378</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>30</v>
+          </cell>
+          <cell r="F9">
+            <v>105.65829174210816</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>31</v>
+          </cell>
+          <cell r="F10">
+            <v>101.48644622240705</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>32</v>
+          </cell>
+          <cell r="F11">
+            <v>98.934796888425112</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5525,7 +6044,7 @@
   <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E11"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5541,94 +6060,94 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
       <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="63" t="s">
+      <c r="Z1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="74"/>
+      <c r="AF1" s="74"/>
+      <c r="AG1" s="74"/>
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="64" t="s">
+      <c r="N2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="77"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
-      <c r="Y2" s="58"/>
-      <c r="Z2" s="64" t="s">
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="66"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="77"/>
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:36" s="33" customFormat="1" x14ac:dyDescent="0.25">
@@ -5749,7 +6268,7 @@
       <c r="J4" s="9">
         <v>0.372807</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="71" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="32"/>
@@ -5864,7 +6383,7 @@
       <c r="J5" s="12">
         <v>0.43953399999999998</v>
       </c>
-      <c r="K5" s="61"/>
+      <c r="K5" s="72"/>
       <c r="L5" s="32"/>
       <c r="M5" s="4">
         <v>26</v>
@@ -5977,7 +6496,7 @@
       <c r="J6" s="12">
         <v>0.99928600000000001</v>
       </c>
-      <c r="K6" s="61"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="32"/>
       <c r="M6" s="4">
         <v>27</v>
@@ -6090,7 +6609,7 @@
       <c r="J7" s="12">
         <v>2.0243199999999999</v>
       </c>
-      <c r="K7" s="61"/>
+      <c r="K7" s="72"/>
       <c r="L7" s="32"/>
       <c r="M7" s="4">
         <v>28</v>
@@ -6203,7 +6722,7 @@
       <c r="J8" s="12">
         <v>4.0821899999999998</v>
       </c>
-      <c r="K8" s="61"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="32"/>
       <c r="M8" s="4">
         <v>29</v>
@@ -6316,7 +6835,7 @@
       <c r="J9" s="12">
         <v>8.4418699999999998</v>
       </c>
-      <c r="K9" s="61"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="32"/>
       <c r="M9" s="4">
         <v>30</v>
@@ -6429,7 +6948,7 @@
       <c r="J10" s="12">
         <v>17.3062</v>
       </c>
-      <c r="K10" s="61"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="32"/>
       <c r="M10" s="4">
         <v>31</v>
@@ -6542,7 +7061,7 @@
       <c r="J11" s="16">
         <v>35.768999999999998</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="32"/>
       <c r="M11" s="4">
         <v>32</v>
@@ -6625,16 +7144,16 @@
       <c r="AJ11" s="40"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="Z13" s="57" t="s">
+      <c r="Z13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="57"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="Y14" s="2" t="s">
@@ -6781,42 +7300,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
+      <c r="B2" s="69"/>
       <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
@@ -6841,7 +7360,7 @@
       <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="69"/>
       <c r="R2" s="49" t="s">
         <v>14</v>
       </c>
@@ -7420,18 +7939,18 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="58" t="s">
+      <c r="Q13" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="57" t="s">
+      <c r="R13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="58"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="49">
         <v>4</v>
       </c>
@@ -7543,42 +8062,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
+      <c r="B2" s="69"/>
       <c r="D2" s="49" t="s">
         <v>14</v>
       </c>
@@ -7603,7 +8122,7 @@
       <c r="M2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="58"/>
+      <c r="Q2" s="69"/>
       <c r="R2" s="49" t="s">
         <v>14</v>
       </c>
@@ -8182,18 +8701,18 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q13" s="58" t="s">
+      <c r="Q13" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="57" t="s">
+      <c r="R13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q14" s="58"/>
+      <c r="Q14" s="69"/>
       <c r="R14" s="49">
         <v>4</v>
       </c>
@@ -8287,7 +8806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
@@ -8297,24 +8816,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="J1" s="77" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="J1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="52">
@@ -8353,7 +8872,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="20">
         <v>4</v>
       </c>
@@ -8391,35 +8910,35 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="62">
         <v>3</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="63">
         <v>2</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="64">
         <v>2</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="65">
         <v>1</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="66" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="66" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8439,7 +8958,7 @@
       <c r="E5" s="7">
         <v>0.10908900000000001</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="57">
         <v>6.5601099999999996E-2</v>
       </c>
       <c r="I5" s="4">
@@ -8469,7 +8988,7 @@
       <c r="B6" s="10">
         <v>0.50765099999999996</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="60">
         <v>0.13627700000000001</v>
       </c>
       <c r="D6" s="12">
@@ -8478,7 +8997,7 @@
       <c r="E6" s="12">
         <v>0.147836</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="58">
         <v>0.207895</v>
       </c>
       <c r="I6" s="4">
@@ -8508,7 +9027,7 @@
       <c r="B7" s="10">
         <v>1.1070500000000001</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="60">
         <v>0.32850400000000002</v>
       </c>
       <c r="D7" s="12">
@@ -8517,7 +9036,7 @@
       <c r="E7" s="12">
         <v>0.44788899999999998</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="58">
         <v>0.49817099999999997</v>
       </c>
       <c r="I7" s="4">
@@ -8547,7 +9066,7 @@
       <c r="B8" s="10">
         <v>2.3196400000000001</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="60">
         <v>0.74790800000000002</v>
       </c>
       <c r="D8" s="12">
@@ -8556,7 +9075,7 @@
       <c r="E8" s="12">
         <v>1.0157400000000001</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="58">
         <v>1.1842299999999999</v>
       </c>
       <c r="I8" s="4">
@@ -8586,7 +9105,7 @@
       <c r="B9" s="10">
         <v>4.8814500000000001</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="60">
         <v>1.5672699999999999</v>
       </c>
       <c r="D9" s="12">
@@ -8595,7 +9114,7 @@
       <c r="E9" s="12">
         <v>2.19773</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="58">
         <v>2.4522400000000002</v>
       </c>
       <c r="I9" s="4">
@@ -8625,7 +9144,7 @@
       <c r="B10" s="10">
         <v>10.1624</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="60">
         <v>3.2447300000000001</v>
       </c>
       <c r="D10" s="12">
@@ -8634,7 +9153,7 @@
       <c r="E10" s="12">
         <v>4.5578599999999998</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="58">
         <v>5.1356400000000004</v>
       </c>
       <c r="I10" s="4">
@@ -8664,7 +9183,7 @@
       <c r="B11" s="10">
         <v>21.160299999999999</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="60">
         <v>6.6621899999999998</v>
       </c>
       <c r="D11" s="12">
@@ -8673,7 +9192,7 @@
       <c r="E11" s="12">
         <v>9.3661499999999993</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="58">
         <v>10.692299999999999</v>
       </c>
       <c r="I11" s="4">
@@ -8703,7 +9222,7 @@
       <c r="B12" s="14">
         <v>43.412100000000002</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="61">
         <v>13.6403</v>
       </c>
       <c r="D12" s="16">
@@ -8712,7 +9231,7 @@
       <c r="E12" s="16">
         <v>19.1129</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="59">
         <v>21.640999999999998</v>
       </c>
       <c r="I12" s="4">
@@ -8760,24 +9279,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-      <c r="J1" s="77" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="J1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="52">
@@ -8816,7 +9335,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="20">
         <v>4</v>
       </c>
@@ -8854,35 +9373,35 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="62">
         <v>3</v>
       </c>
-      <c r="D4" s="73">
+      <c r="D4" s="63">
         <v>2</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="64">
         <v>2</v>
       </c>
-      <c r="F4" s="75">
+      <c r="F4" s="65">
         <v>1</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="66" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="1"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="73" t="s">
+      <c r="K4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="74" t="s">
+      <c r="L4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="66" t="s">
         <v>22</v>
       </c>
     </row>
@@ -8890,7 +9409,7 @@
       <c r="A5" s="4">
         <v>25</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="67">
         <v>0.20188300000000001</v>
       </c>
       <c r="C5" s="6">
@@ -8902,7 +9421,7 @@
       <c r="E5" s="7">
         <v>0.10908900000000001</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="57">
         <v>6.5601099999999996E-2</v>
       </c>
       <c r="I5" s="4">
@@ -8932,7 +9451,7 @@
       <c r="B6" s="44">
         <v>0.40808100000000003</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="60">
         <v>0.13627700000000001</v>
       </c>
       <c r="D6" s="12">
@@ -8941,7 +9460,7 @@
       <c r="E6" s="12">
         <v>0.147836</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="58">
         <v>0.207895</v>
       </c>
       <c r="I6" s="4">
@@ -8971,7 +9490,7 @@
       <c r="B7" s="44">
         <v>0.87136800000000003</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="60">
         <v>0.32850400000000002</v>
       </c>
       <c r="D7" s="12">
@@ -8980,7 +9499,7 @@
       <c r="E7" s="12">
         <v>0.44788899999999998</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="58">
         <v>0.49817099999999997</v>
       </c>
       <c r="I7" s="4">
@@ -9010,7 +9529,7 @@
       <c r="B8" s="44">
         <v>1.8266</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="60">
         <v>0.74790800000000002</v>
       </c>
       <c r="D8" s="12">
@@ -9019,7 +9538,7 @@
       <c r="E8" s="12">
         <v>1.0157400000000001</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="58">
         <v>1.1842299999999999</v>
       </c>
       <c r="I8" s="4">
@@ -9049,7 +9568,7 @@
       <c r="B9" s="44">
         <v>3.8927999999999998</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="60">
         <v>1.5672699999999999</v>
       </c>
       <c r="D9" s="12">
@@ -9058,7 +9577,7 @@
       <c r="E9" s="12">
         <v>2.19773</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="58">
         <v>2.4522400000000002</v>
       </c>
       <c r="I9" s="4">
@@ -9088,7 +9607,7 @@
       <c r="B10" s="44">
         <v>8.0802499999999995</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="60">
         <v>3.2447300000000001</v>
       </c>
       <c r="D10" s="12">
@@ -9097,7 +9616,7 @@
       <c r="E10" s="12">
         <v>4.5578599999999998</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="58">
         <v>5.1356400000000004</v>
       </c>
       <c r="I10" s="4">
@@ -9127,7 +9646,7 @@
       <c r="B11" s="44">
         <v>16.703600000000002</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="60">
         <v>6.6621899999999998</v>
       </c>
       <c r="D11" s="12">
@@ -9136,7 +9655,7 @@
       <c r="E11" s="12">
         <v>9.3661499999999993</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="58">
         <v>10.692299999999999</v>
       </c>
       <c r="I11" s="4">
@@ -9166,7 +9685,7 @@
       <c r="B12" s="18">
         <v>34.433999999999997</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="61">
         <v>13.6403</v>
       </c>
       <c r="D12" s="16">
@@ -9175,7 +9694,7 @@
       <c r="E12" s="16">
         <v>19.1129</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="59">
         <v>21.640999999999998</v>
       </c>
       <c r="I12" s="4">
@@ -9213,7 +9732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="N2" sqref="N2:N3"/>
     </sheetView>
   </sheetViews>
@@ -9224,45 +9743,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H1" s="77" t="s">
+      <c r="H1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80"/>
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="77" t="s">
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="69" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="52">
         <v>1</v>
       </c>
@@ -9305,7 +9824,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="58"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="81"/>
       <c r="D3" s="49" t="s">
         <v>14</v>
@@ -9363,7 +9882,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="64" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -9378,20 +9897,20 @@
       <c r="G4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="62">
         <v>3</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="63">
         <v>2</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="64">
         <v>2</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="65">
         <v>1</v>
       </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="64" t="s">
         <v>21</v>
       </c>
       <c r="O4" s="52" t="s">
@@ -9406,16 +9925,16 @@
       <c r="R4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="73" t="s">
+      <c r="T4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="74" t="s">
+      <c r="U4" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="65" t="s">
         <v>28</v>
       </c>
     </row>
@@ -9426,7 +9945,7 @@
       <c r="B5" s="5">
         <v>0.292435</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="67">
         <v>0.20188300000000001</v>
       </c>
       <c r="D5" s="45">
@@ -9450,7 +9969,7 @@
       <c r="J5" s="7">
         <v>0.10908900000000001</v>
       </c>
-      <c r="K5" s="67">
+      <c r="K5" s="57">
         <v>6.5601099999999996E-2</v>
       </c>
       <c r="M5" s="4">
@@ -9515,7 +10034,7 @@
       <c r="G6" s="46">
         <v>0.17968899999999999</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="60">
         <v>0.13627700000000001</v>
       </c>
       <c r="I6" s="12">
@@ -9524,7 +10043,7 @@
       <c r="J6" s="12">
         <v>0.147836</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="58">
         <v>0.207895</v>
       </c>
       <c r="M6" s="4">
@@ -9589,7 +10108,7 @@
       <c r="G7" s="46">
         <v>0.50579399999999997</v>
       </c>
-      <c r="H7" s="70">
+      <c r="H7" s="60">
         <v>0.32850400000000002</v>
       </c>
       <c r="I7" s="12">
@@ -9598,7 +10117,7 @@
       <c r="J7" s="12">
         <v>0.44788899999999998</v>
       </c>
-      <c r="K7" s="68">
+      <c r="K7" s="58">
         <v>0.49817099999999997</v>
       </c>
       <c r="M7" s="4">
@@ -9663,7 +10182,7 @@
       <c r="G8" s="46">
         <v>1.16812</v>
       </c>
-      <c r="H8" s="70">
+      <c r="H8" s="60">
         <v>0.74790800000000002</v>
       </c>
       <c r="I8" s="12">
@@ -9672,7 +10191,7 @@
       <c r="J8" s="12">
         <v>1.0157400000000001</v>
       </c>
-      <c r="K8" s="68">
+      <c r="K8" s="58">
         <v>1.1842299999999999</v>
       </c>
       <c r="M8" s="4">
@@ -9737,7 +10256,7 @@
       <c r="G9" s="46">
         <v>2.5029699999999999</v>
       </c>
-      <c r="H9" s="70">
+      <c r="H9" s="60">
         <v>1.5672699999999999</v>
       </c>
       <c r="I9" s="12">
@@ -9746,7 +10265,7 @@
       <c r="J9" s="12">
         <v>2.19773</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="58">
         <v>2.4522400000000002</v>
       </c>
       <c r="M9" s="4">
@@ -9811,7 +10330,7 @@
       <c r="G10" s="46">
         <v>5.2347900000000003</v>
       </c>
-      <c r="H10" s="70">
+      <c r="H10" s="60">
         <v>3.2447300000000001</v>
       </c>
       <c r="I10" s="12">
@@ -9820,7 +10339,7 @@
       <c r="J10" s="12">
         <v>4.5578599999999998</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="58">
         <v>5.1356400000000004</v>
       </c>
       <c r="M10" s="4">
@@ -9885,7 +10404,7 @@
       <c r="G11" s="46">
         <v>10.588800000000001</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="60">
         <v>6.6621899999999998</v>
       </c>
       <c r="I11" s="12">
@@ -9894,7 +10413,7 @@
       <c r="J11" s="12">
         <v>9.3661499999999993</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="58">
         <v>10.692299999999999</v>
       </c>
       <c r="M11" s="4">
@@ -9959,7 +10478,7 @@
       <c r="G12" s="48">
         <v>21.650700000000001</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="61">
         <v>13.6403</v>
       </c>
       <c r="I12" s="16">
@@ -9968,7 +10487,7 @@
       <c r="J12" s="16">
         <v>19.1129</v>
       </c>
-      <c r="K12" s="69">
+      <c r="K12" s="59">
         <v>21.640999999999998</v>
       </c>
       <c r="M12" s="4">
@@ -10024,4 +10543,197 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="69"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>33554432</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.292435</v>
+      </c>
+      <c r="E4" s="4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <f>A4/C4/1000000</f>
+        <v>114.74150494981791</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>67108864</v>
+      </c>
+      <c r="B5" s="4">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.50765099999999996</v>
+      </c>
+      <c r="E5" s="4">
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="0">A5/C5/1000000</f>
+        <v>132.19488191690749</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>134217728</v>
+      </c>
+      <c r="B6" s="4">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.1070500000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>121.23908405221083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>268435456</v>
+      </c>
+      <c r="B7" s="4">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.3196400000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>115.72289493197219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>536870912</v>
+      </c>
+      <c r="B8" s="4">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4.8814500000000001</v>
+      </c>
+      <c r="E8" s="4">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>109.98185211361378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1073741824</v>
+      </c>
+      <c r="B9" s="4">
+        <v>30</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10.1624</v>
+      </c>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>105.65829174210816</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2147483648</v>
+      </c>
+      <c r="B10" s="4">
+        <v>31</v>
+      </c>
+      <c r="C10" s="10">
+        <v>21.160299999999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>101.48644622240705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4294967296</v>
+      </c>
+      <c r="B11" s="4">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14">
+        <v>43.412100000000002</v>
+      </c>
+      <c r="E11" s="4">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>98.934796888425112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>